--- a/data/GDP.xlsx
+++ b/data/GDP.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SongshGeo\Dropbox\My_projects\water-utilization-regime-framework\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="国内生产总值（全）" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="175">
   <si>
     <t>指标名称</t>
   </si>
@@ -540,30 +545,24 @@
   <si>
     <t>2019</t>
   </si>
-  <si>
-    <t>数据来源: Wind</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -587,21 +586,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -643,7 +649,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,9 +681,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,6 +716,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -884,118 +892,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CX75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CX73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" customWidth="1"/>
-    <col min="25" max="25" width="22.7109375" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" customWidth="1"/>
-    <col min="27" max="27" width="24.7109375" customWidth="1"/>
-    <col min="28" max="28" width="24.7109375" customWidth="1"/>
-    <col min="29" max="29" width="22.7109375" customWidth="1"/>
-    <col min="30" max="30" width="24.7109375" customWidth="1"/>
-    <col min="31" max="31" width="24.7109375" customWidth="1"/>
-    <col min="32" max="32" width="22.7109375" customWidth="1"/>
-    <col min="33" max="33" width="24.7109375" customWidth="1"/>
-    <col min="34" max="34" width="24.7109375" customWidth="1"/>
-    <col min="35" max="35" width="22.7109375" customWidth="1"/>
-    <col min="36" max="36" width="24.7109375" customWidth="1"/>
-    <col min="37" max="37" width="24.7109375" customWidth="1"/>
-    <col min="38" max="38" width="22.7109375" customWidth="1"/>
-    <col min="39" max="39" width="24.7109375" customWidth="1"/>
-    <col min="40" max="40" width="24.7109375" customWidth="1"/>
-    <col min="41" max="41" width="22.7109375" customWidth="1"/>
-    <col min="42" max="42" width="24.7109375" customWidth="1"/>
-    <col min="43" max="43" width="24.7109375" customWidth="1"/>
-    <col min="44" max="44" width="22.7109375" customWidth="1"/>
-    <col min="45" max="45" width="24.7109375" customWidth="1"/>
-    <col min="46" max="46" width="24.7109375" customWidth="1"/>
-    <col min="47" max="47" width="22.7109375" customWidth="1"/>
-    <col min="48" max="48" width="24.7109375" customWidth="1"/>
-    <col min="49" max="49" width="24.7109375" customWidth="1"/>
-    <col min="50" max="50" width="22.7109375" customWidth="1"/>
-    <col min="51" max="51" width="24.7109375" customWidth="1"/>
-    <col min="52" max="52" width="24.7109375" customWidth="1"/>
-    <col min="53" max="53" width="22.7109375" customWidth="1"/>
-    <col min="54" max="54" width="24.7109375" customWidth="1"/>
-    <col min="55" max="55" width="22.7109375" customWidth="1"/>
-    <col min="56" max="56" width="24.7109375" customWidth="1"/>
-    <col min="57" max="57" width="24.7109375" customWidth="1"/>
-    <col min="58" max="58" width="22.7109375" customWidth="1"/>
-    <col min="59" max="59" width="22.7109375" customWidth="1"/>
-    <col min="60" max="60" width="24.7109375" customWidth="1"/>
-    <col min="61" max="61" width="22.7109375" customWidth="1"/>
-    <col min="62" max="62" width="22.7109375" customWidth="1"/>
-    <col min="63" max="63" width="22.7109375" customWidth="1"/>
-    <col min="64" max="64" width="22.7109375" customWidth="1"/>
-    <col min="65" max="65" width="22.7109375" customWidth="1"/>
-    <col min="66" max="66" width="24.7109375" customWidth="1"/>
-    <col min="67" max="67" width="22.7109375" customWidth="1"/>
-    <col min="68" max="68" width="24.7109375" customWidth="1"/>
-    <col min="69" max="69" width="24.7109375" customWidth="1"/>
-    <col min="70" max="70" width="22.7109375" customWidth="1"/>
-    <col min="71" max="71" width="22.7109375" customWidth="1"/>
-    <col min="72" max="72" width="22.7109375" customWidth="1"/>
-    <col min="73" max="73" width="22.7109375" customWidth="1"/>
-    <col min="74" max="74" width="22.7109375" customWidth="1"/>
-    <col min="75" max="75" width="24.7109375" customWidth="1"/>
-    <col min="76" max="76" width="20.7109375" customWidth="1"/>
-    <col min="77" max="77" width="20.7109375" customWidth="1"/>
-    <col min="78" max="78" width="20.7109375" customWidth="1"/>
-    <col min="79" max="79" width="22.7109375" customWidth="1"/>
-    <col min="80" max="80" width="24.7109375" customWidth="1"/>
-    <col min="81" max="81" width="24.7109375" customWidth="1"/>
-    <col min="82" max="82" width="22.7109375" customWidth="1"/>
-    <col min="83" max="83" width="22.7109375" customWidth="1"/>
-    <col min="84" max="84" width="22.7109375" customWidth="1"/>
-    <col min="85" max="85" width="20.7109375" customWidth="1"/>
-    <col min="86" max="86" width="22.7109375" customWidth="1"/>
-    <col min="87" max="87" width="22.7109375" customWidth="1"/>
-    <col min="88" max="88" width="20.7109375" customWidth="1"/>
-    <col min="89" max="89" width="22.7109375" customWidth="1"/>
-    <col min="90" max="90" width="22.7109375" customWidth="1"/>
-    <col min="91" max="91" width="22.7109375" customWidth="1"/>
-    <col min="92" max="92" width="22.7109375" customWidth="1"/>
-    <col min="93" max="93" width="22.7109375" customWidth="1"/>
-    <col min="94" max="94" width="28.7109375" customWidth="1"/>
-    <col min="95" max="95" width="28.7109375" customWidth="1"/>
-    <col min="96" max="96" width="30.7109375" customWidth="1"/>
-    <col min="97" max="97" width="16.7109375" customWidth="1"/>
-    <col min="98" max="98" width="16.7109375" customWidth="1"/>
-    <col min="99" max="99" width="16.7109375" customWidth="1"/>
-    <col min="100" max="100" width="22.7109375" customWidth="1"/>
-    <col min="101" max="101" width="24.7109375" customWidth="1"/>
-    <col min="102" max="102" width="26.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="10" width="24.75" customWidth="1"/>
+    <col min="11" max="11" width="20.75" customWidth="1"/>
+    <col min="12" max="18" width="22.75" customWidth="1"/>
+    <col min="19" max="19" width="24.75" customWidth="1"/>
+    <col min="20" max="25" width="22.75" customWidth="1"/>
+    <col min="26" max="26" width="20.75" customWidth="1"/>
+    <col min="27" max="28" width="24.75" customWidth="1"/>
+    <col min="29" max="29" width="22.75" customWidth="1"/>
+    <col min="30" max="31" width="24.75" customWidth="1"/>
+    <col min="32" max="32" width="22.75" customWidth="1"/>
+    <col min="33" max="34" width="24.75" customWidth="1"/>
+    <col min="35" max="35" width="22.75" customWidth="1"/>
+    <col min="36" max="37" width="24.75" customWidth="1"/>
+    <col min="38" max="38" width="22.75" customWidth="1"/>
+    <col min="39" max="40" width="24.75" customWidth="1"/>
+    <col min="41" max="41" width="22.75" customWidth="1"/>
+    <col min="42" max="43" width="24.75" customWidth="1"/>
+    <col min="44" max="44" width="22.75" customWidth="1"/>
+    <col min="45" max="46" width="24.75" customWidth="1"/>
+    <col min="47" max="47" width="22.75" customWidth="1"/>
+    <col min="48" max="49" width="24.75" customWidth="1"/>
+    <col min="50" max="50" width="22.75" customWidth="1"/>
+    <col min="51" max="52" width="24.75" customWidth="1"/>
+    <col min="53" max="53" width="22.75" customWidth="1"/>
+    <col min="54" max="54" width="24.75" customWidth="1"/>
+    <col min="55" max="55" width="22.75" customWidth="1"/>
+    <col min="56" max="57" width="24.75" customWidth="1"/>
+    <col min="58" max="59" width="22.75" customWidth="1"/>
+    <col min="60" max="60" width="24.75" customWidth="1"/>
+    <col min="61" max="65" width="22.75" customWidth="1"/>
+    <col min="66" max="66" width="24.75" customWidth="1"/>
+    <col min="67" max="67" width="22.75" customWidth="1"/>
+    <col min="68" max="69" width="24.75" customWidth="1"/>
+    <col min="70" max="74" width="22.75" customWidth="1"/>
+    <col min="75" max="75" width="24.75" customWidth="1"/>
+    <col min="76" max="78" width="20.75" customWidth="1"/>
+    <col min="79" max="79" width="22.75" customWidth="1"/>
+    <col min="80" max="81" width="24.75" customWidth="1"/>
+    <col min="82" max="84" width="22.75" customWidth="1"/>
+    <col min="85" max="85" width="20.75" customWidth="1"/>
+    <col min="86" max="87" width="22.75" customWidth="1"/>
+    <col min="88" max="88" width="20.75" customWidth="1"/>
+    <col min="89" max="93" width="22.75" customWidth="1"/>
+    <col min="94" max="95" width="28.75" customWidth="1"/>
+    <col min="96" max="96" width="30.75" customWidth="1"/>
+    <col min="97" max="99" width="16.75" customWidth="1"/>
+    <col min="100" max="100" width="22.75" customWidth="1"/>
+    <col min="101" max="101" width="24.75" customWidth="1"/>
+    <col min="102" max="102" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1265,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:102">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1611,7 +1573,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:102">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -1622,10 +1584,10 @@
         <v>1.02</v>
       </c>
       <c r="D3" s="1">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="F3" s="1">
         <v>1.48</v>
@@ -1826,7 +1788,7 @@
         <v>0.78</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BU3" s="1">
         <v>6.26</v>
@@ -1868,7 +1830,7 @@
         <v>0.99</v>
       </c>
       <c r="CH3" s="1">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="CI3" s="1">
         <v>0.17</v>
@@ -1919,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:102">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -2140,7 +2102,7 @@
         <v>6.44</v>
       </c>
       <c r="BV4" s="1">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BW4" s="1">
         <v>1.98</v>
@@ -2227,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:102">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -2403,7 +2365,7 @@
         <v>7.4</v>
       </c>
       <c r="BG5" s="1">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="BH5" s="1">
         <v>1.28</v>
@@ -2481,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="CG5" s="1">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CH5" s="1">
         <v>0.1</v>
@@ -2535,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:102">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2555,7 +2517,7 @@
         <v>6.31</v>
       </c>
       <c r="G6" s="1">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="H6" s="1">
         <v>25.23</v>
@@ -2567,7 +2529,7 @@
         <v>7.65</v>
       </c>
       <c r="K6" s="1">
-        <v>9.380000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="L6" s="1">
         <v>2.75</v>
@@ -2576,7 +2538,7 @@
         <v>3.87</v>
       </c>
       <c r="N6" s="1">
-        <v>8.640000000000001</v>
+        <v>8.64</v>
       </c>
       <c r="O6" s="1">
         <v>1.37</v>
@@ -2591,7 +2553,7 @@
         <v>20</v>
       </c>
       <c r="S6" s="1">
-        <v>9.380000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="T6" s="1">
         <v>9.19</v>
@@ -2624,7 +2586,7 @@
         <v>25.49</v>
       </c>
       <c r="AD6" s="1">
-        <v>8.529999999999999</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="AE6" s="1">
         <v>14.39</v>
@@ -2642,13 +2604,13 @@
         <v>17.2</v>
       </c>
       <c r="AJ6" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AK6" s="1">
         <v>3.4</v>
       </c>
       <c r="AL6" s="1">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="AM6" s="1">
         <v>2.42</v>
@@ -2660,7 +2622,7 @@
         <v>12.38</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="AQ6" s="1">
         <v>4.01</v>
@@ -2750,7 +2712,7 @@
         <v>1.59</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BU6" s="1">
         <v>7.27</v>
@@ -2777,7 +2739,7 @@
         <v>1.92</v>
       </c>
       <c r="CC6" s="1">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="CD6" s="1">
         <v>8.66</v>
@@ -2843,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:102">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -2869,7 +2831,7 @@
         <v>24.1</v>
       </c>
       <c r="I7" s="1">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="J7" s="1">
         <v>10</v>
@@ -2920,7 +2882,7 @@
         <v>8.4</v>
       </c>
       <c r="Z7" s="1">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="AA7" s="1">
         <v>28.75</v>
@@ -2947,7 +2909,7 @@
         <v>6.83</v>
       </c>
       <c r="AI7" s="1">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AJ7" s="1">
         <v>2.9</v>
@@ -2956,7 +2918,7 @@
         <v>4.2</v>
       </c>
       <c r="AL7" s="1">
-        <v>8.890000000000001</v>
+        <v>8.89</v>
       </c>
       <c r="AM7" s="1">
         <v>3.16</v>
@@ -2971,13 +2933,13 @@
         <v>2.89</v>
       </c>
       <c r="AQ7" s="1">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AR7" s="1">
         <v>28.23</v>
       </c>
       <c r="AS7" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AT7" s="1">
         <v>8.26</v>
@@ -3016,13 +2978,13 @@
         <v>10.94</v>
       </c>
       <c r="BF7" s="1">
-        <v>8.710000000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="BG7" s="1">
         <v>3.48</v>
       </c>
       <c r="BH7" s="1">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="BI7" s="1">
         <v>0</v>
@@ -3046,7 +3008,7 @@
         <v>16.21</v>
       </c>
       <c r="BP7" s="1">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="BQ7" s="1">
         <v>7.16</v>
@@ -3061,7 +3023,7 @@
         <v>1.57</v>
       </c>
       <c r="BU7" s="1">
-        <v>8.869999999999999</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="BV7" s="1">
         <v>2.88</v>
@@ -3088,7 +3050,7 @@
         <v>3.57</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.869999999999999</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="CE7" s="1">
         <v>1.8</v>
@@ -3121,7 +3083,7 @@
         <v>2.1</v>
       </c>
       <c r="CO7" s="1">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CP7" s="1">
         <v>0</v>
@@ -3151,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:102">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -3177,7 +3139,7 @@
         <v>25.38</v>
       </c>
       <c r="I8" s="1">
-        <v>9.140000000000001</v>
+        <v>9.14</v>
       </c>
       <c r="J8" s="1">
         <v>10.79</v>
@@ -3186,7 +3148,7 @@
         <v>11.55</v>
       </c>
       <c r="L8" s="1">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="M8" s="1">
         <v>5.59</v>
@@ -3228,7 +3190,7 @@
         <v>8.5</v>
       </c>
       <c r="Z8" s="1">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="AA8" s="1">
         <v>29.67</v>
@@ -3246,7 +3208,7 @@
         <v>16.98</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.76</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="AG8" s="1">
         <v>4.13</v>
@@ -3282,7 +3244,7 @@
         <v>5.25</v>
       </c>
       <c r="AR8" s="1">
-        <v>32.48</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="AS8" s="1">
         <v>10.98</v>
@@ -3459,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:102">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -3485,7 +3447,7 @@
         <v>28.18</v>
       </c>
       <c r="I9" s="1">
-        <v>9.960000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="J9" s="1">
         <v>11.06</v>
@@ -3518,7 +3480,7 @@
         <v>12.59</v>
       </c>
       <c r="T9" s="1">
-        <v>9.869999999999999</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="U9" s="1">
         <v>6.48</v>
@@ -3527,7 +3489,7 @@
         <v>4.78</v>
       </c>
       <c r="W9" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="X9" s="1">
         <v>12.1</v>
@@ -3572,7 +3534,7 @@
         <v>5.2</v>
       </c>
       <c r="AL9" s="1">
-        <v>9.619999999999999</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="AM9" s="1">
         <v>3.49</v>
@@ -3590,7 +3552,7 @@
         <v>5.39</v>
       </c>
       <c r="AR9" s="1">
-        <v>35.52</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="AS9" s="1">
         <v>11.42</v>
@@ -3614,7 +3576,7 @@
         <v>7.45</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="BA9" s="1">
         <v>21.13</v>
@@ -3632,7 +3594,7 @@
         <v>12.99</v>
       </c>
       <c r="BF9" s="1">
-        <v>9.960000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="BG9" s="1">
         <v>4.47</v>
@@ -3659,13 +3621,13 @@
         <v>2.42</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.08</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="BP9" s="1">
         <v>7.02</v>
       </c>
       <c r="BQ9" s="1">
-        <v>9.609999999999999</v>
+        <v>9.61</v>
       </c>
       <c r="BR9" s="1">
         <v>7.28</v>
@@ -3698,7 +3660,7 @@
         <v>11.43</v>
       </c>
       <c r="CB9" s="1">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="CC9" s="1">
         <v>4.3</v>
@@ -3719,7 +3681,7 @@
         <v>0.51</v>
       </c>
       <c r="CI9" s="1">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="CJ9" s="1">
         <v>1.71</v>
@@ -3767,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:102">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -3781,7 +3743,7 @@
         <v>12.12</v>
       </c>
       <c r="E10" s="1">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F10" s="1">
         <v>10.83</v>
@@ -3814,10 +3776,10 @@
         <v>5.43</v>
       </c>
       <c r="P10" s="1">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="R10" s="1">
         <v>39.47</v>
@@ -3829,7 +3791,7 @@
         <v>10.56</v>
       </c>
       <c r="U10" s="1">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="V10" s="1">
         <v>5.82</v>
@@ -3859,7 +3821,7 @@
         <v>13.79</v>
       </c>
       <c r="AE10" s="1">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="AF10" s="1">
         <v>19.91</v>
@@ -3868,13 +3830,13 @@
         <v>5.6</v>
       </c>
       <c r="AH10" s="1">
-        <v>9.029999999999999</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="AI10" s="1">
         <v>24.7</v>
       </c>
       <c r="AJ10" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AK10" s="1">
         <v>6</v>
@@ -3892,7 +3854,7 @@
         <v>12.35</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="AQ10" s="1">
         <v>5.46</v>
@@ -3976,19 +3938,19 @@
         <v>11.9</v>
       </c>
       <c r="BR10" s="1">
-        <v>8.869999999999999</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="BS10" s="1">
         <v>3.25</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="BU10" s="1">
         <v>11.6</v>
       </c>
       <c r="BV10" s="1">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="BW10" s="1">
         <v>4.62</v>
@@ -4000,7 +3962,7 @@
         <v>0.16</v>
       </c>
       <c r="BZ10" s="1">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="CA10" s="1">
         <v>14.92</v>
@@ -4075,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:102">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -4089,7 +4051,7 @@
         <v>13.64</v>
       </c>
       <c r="E11" s="1">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F11" s="1">
         <v>13.28</v>
@@ -4113,7 +4075,7 @@
         <v>9.4</v>
       </c>
       <c r="M11" s="1">
-        <v>8.220000000000001</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="N11" s="1">
         <v>11.29</v>
@@ -4176,7 +4138,7 @@
         <v>7.93</v>
       </c>
       <c r="AH11" s="1">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="AI11" s="1">
         <v>28.1</v>
@@ -4194,7 +4156,7 @@
         <v>5.2</v>
       </c>
       <c r="AN11" s="1">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="AO11" s="1">
         <v>15.45</v>
@@ -4218,10 +4180,10 @@
         <v>24.27</v>
       </c>
       <c r="AV11" s="1">
-        <v>18.08</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AX11" s="1">
         <v>24.33</v>
@@ -4269,7 +4231,7 @@
         <v>13.12</v>
       </c>
       <c r="BM11" s="1">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="BN11" s="1">
         <v>3.41</v>
@@ -4278,7 +4240,7 @@
         <v>29.21</v>
       </c>
       <c r="BP11" s="1">
-        <v>9.369999999999999</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="BQ11" s="1">
         <v>13.81</v>
@@ -4305,7 +4267,7 @@
         <v>1.4</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BZ11" s="1">
         <v>0.09</v>
@@ -4344,7 +4306,7 @@
         <v>0.22</v>
       </c>
       <c r="CL11" s="1">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="CM11" s="1">
         <v>7.88</v>
@@ -4383,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:102">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -4391,13 +4353,13 @@
         <v>3.93</v>
       </c>
       <c r="C12" s="1">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="D12" s="1">
         <v>10.24</v>
       </c>
       <c r="E12" s="1">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F12" s="1">
         <v>22.21</v>
@@ -4409,7 +4371,7 @@
         <v>27.89</v>
       </c>
       <c r="I12" s="1">
-        <v>19.51</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="J12" s="1">
         <v>16.21</v>
@@ -4436,13 +4398,13 @@
         <v>16.2</v>
       </c>
       <c r="R12" s="1">
-        <v>70.81999999999999</v>
+        <v>70.819999999999993</v>
       </c>
       <c r="S12" s="1">
         <v>18.62</v>
       </c>
       <c r="T12" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="U12" s="1">
         <v>15</v>
@@ -4535,7 +4497,7 @@
         <v>26.8</v>
       </c>
       <c r="AY12" s="1">
-        <v>19.69</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>15.01</v>
@@ -4550,7 +4512,7 @@
         <v>30.44</v>
       </c>
       <c r="BD12" s="1">
-        <v>19.15</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="BE12" s="1">
         <v>17.5</v>
@@ -4562,7 +4524,7 @@
         <v>6.79</v>
       </c>
       <c r="BH12" s="1">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="BI12" s="1">
         <v>0</v>
@@ -4580,7 +4542,7 @@
         <v>14.53</v>
       </c>
       <c r="BN12" s="1">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="BO12" s="1">
         <v>31.67</v>
@@ -4616,7 +4578,7 @@
         <v>0.17</v>
       </c>
       <c r="BZ12" s="1">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="CA12" s="1">
         <v>13.48</v>
@@ -4655,7 +4617,7 @@
         <v>0.8</v>
       </c>
       <c r="CM12" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="CN12" s="1">
         <v>4.72</v>
@@ -4691,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:102">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -4741,10 +4703,10 @@
         <v>7.6</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>95.20999999999999</v>
+        <v>95.21</v>
       </c>
       <c r="S13" s="1">
         <v>23.08</v>
@@ -4753,13 +4715,13 @@
         <v>9.91</v>
       </c>
       <c r="U13" s="1">
-        <v>19.67</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="V13" s="1">
         <v>7.57</v>
       </c>
       <c r="W13" s="1">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="X13" s="1">
         <v>38.1</v>
@@ -4771,7 +4733,7 @@
         <v>4.29</v>
       </c>
       <c r="AA13" s="1">
-        <v>94.81999999999999</v>
+        <v>94.82</v>
       </c>
       <c r="AB13" s="1">
         <v>29.38</v>
@@ -4867,7 +4829,7 @@
         <v>11.68</v>
       </c>
       <c r="BG13" s="1">
-        <v>8.880000000000001</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="BH13" s="1">
         <v>6.19</v>
@@ -4885,7 +4847,7 @@
         <v>12.02</v>
       </c>
       <c r="BM13" s="1">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="BN13" s="1">
         <v>5.61</v>
@@ -4900,7 +4862,7 @@
         <v>16.71</v>
       </c>
       <c r="BR13" s="1">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="BS13" s="1">
         <v>9.01</v>
@@ -4939,7 +4901,7 @@
         <v>7.59</v>
       </c>
       <c r="CE13" s="1">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="CF13" s="1">
         <v>5.93</v>
@@ -4999,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:102">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -5031,7 +4993,7 @@
         <v>19.13</v>
       </c>
       <c r="K14" s="1">
-        <v>8.869999999999999</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="L14" s="1">
         <v>28.61</v>
@@ -5076,7 +5038,7 @@
         <v>20.7</v>
       </c>
       <c r="Z14" s="1">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="AA14" s="1">
         <v>123.36</v>
@@ -5112,7 +5074,7 @@
         <v>11.2</v>
       </c>
       <c r="AL14" s="1">
-        <v>9.140000000000001</v>
+        <v>9.14</v>
       </c>
       <c r="AM14" s="1">
         <v>12.01</v>
@@ -5124,7 +5086,7 @@
         <v>14.81</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="AQ14" s="1">
         <v>12.56</v>
@@ -5136,10 +5098,10 @@
         <v>31.07</v>
       </c>
       <c r="AT14" s="1">
-        <v>19.69</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.08</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="AV14" s="1">
         <v>33.74</v>
@@ -5175,7 +5137,7 @@
         <v>10.63</v>
       </c>
       <c r="BG14" s="1">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="BH14" s="1">
         <v>7.13</v>
@@ -5199,7 +5161,7 @@
         <v>6.34</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.17</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="BP14" s="1">
         <v>9.08</v>
@@ -5214,7 +5176,7 @@
         <v>9.49</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="BU14" s="1">
         <v>8.83</v>
@@ -5238,10 +5200,10 @@
         <v>12.59</v>
       </c>
       <c r="CB14" s="1">
-        <v>17.17</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="CC14" s="1">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="CD14" s="1">
         <v>4.57</v>
@@ -5307,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:102">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -5315,7 +5277,7 @@
         <v>3.74</v>
       </c>
       <c r="C15" s="1">
-        <v>20.42</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="D15" s="1">
         <v>12.39</v>
@@ -5324,7 +5286,7 @@
         <v>2.52</v>
       </c>
       <c r="F15" s="1">
-        <v>16.56</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="G15" s="1">
         <v>9.33</v>
@@ -5435,13 +5397,13 @@
         <v>7.71</v>
       </c>
       <c r="AQ15" s="1">
-        <v>9.789999999999999</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="AR15" s="1">
         <v>26.44</v>
       </c>
       <c r="AS15" s="1">
-        <v>20.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="AT15" s="1">
         <v>16.77</v>
@@ -5459,7 +5421,7 @@
         <v>25.86</v>
       </c>
       <c r="AY15" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.85</v>
@@ -5510,7 +5472,7 @@
         <v>23.18</v>
       </c>
       <c r="BP15" s="1">
-        <v>9.789999999999999</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="BQ15" s="1">
         <v>12.37</v>
@@ -5540,13 +5502,13 @@
         <v>0.22</v>
       </c>
       <c r="BZ15" s="1">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="CA15" s="1">
         <v>15.61</v>
       </c>
       <c r="CB15" s="1">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="CC15" s="1">
         <v>7.65</v>
@@ -5579,13 +5541,13 @@
         <v>1.17</v>
       </c>
       <c r="CM15" s="1">
-        <v>8.210000000000001</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="CN15" s="1">
-        <v>9.109999999999999</v>
+        <v>9.11</v>
       </c>
       <c r="CO15" s="1">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="CP15" s="1">
         <v>0</v>
@@ -5615,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:102">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -5626,7 +5588,7 @@
         <v>16.3</v>
       </c>
       <c r="D16" s="1">
-        <v>9.550000000000001</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E16" s="1">
         <v>2.12</v>
@@ -5635,7 +5597,7 @@
         <v>14.08</v>
       </c>
       <c r="G16" s="1">
-        <v>8.050000000000001</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H16" s="1">
         <v>24.07</v>
@@ -5671,7 +5633,7 @@
         <v>41.02</v>
       </c>
       <c r="S16" s="1">
-        <v>17.24</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="T16" s="1">
         <v>9.92</v>
@@ -5680,7 +5642,7 @@
         <v>12.89</v>
       </c>
       <c r="V16" s="1">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="W16" s="1">
         <v>14.5</v>
@@ -5710,7 +5672,7 @@
         <v>22.76</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.24</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="AG16" s="1">
         <v>11.76</v>
@@ -5839,7 +5801,7 @@
         <v>6.55</v>
       </c>
       <c r="BW16" s="1">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="BX16" s="1">
         <v>1.77</v>
@@ -5878,7 +5840,7 @@
         <v>1.6</v>
       </c>
       <c r="CJ16" s="1">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="CK16" s="1">
         <v>0.75</v>
@@ -5923,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:102">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -5934,7 +5896,7 @@
         <v>18.23</v>
       </c>
       <c r="D17" s="1">
-        <v>9.369999999999999</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="E17" s="1">
         <v>2.27</v>
@@ -5991,7 +5953,7 @@
         <v>8.59</v>
       </c>
       <c r="W17" s="1">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="X17" s="1">
         <v>28.1</v>
@@ -6009,7 +5971,7 @@
         <v>20.43</v>
       </c>
       <c r="AC17" s="1">
-        <v>35.27</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="AD17" s="1">
         <v>18.14</v>
@@ -6030,10 +5992,10 @@
         <v>22.8</v>
       </c>
       <c r="AJ17" s="1">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AL17" s="1">
         <v>11.42</v>
@@ -6162,7 +6124,7 @@
         <v>13.09</v>
       </c>
       <c r="CB17" s="1">
-        <v>8.119999999999999</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="CC17" s="1">
         <v>6.15</v>
@@ -6195,7 +6157,7 @@
         <v>1.05</v>
       </c>
       <c r="CM17" s="1">
-        <v>9.789999999999999</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="CN17" s="1">
         <v>5.66</v>
@@ -6231,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:102">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -6242,16 +6204,16 @@
         <v>20.96</v>
       </c>
       <c r="D18" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F18" s="1">
-        <v>20.08</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="G18" s="1">
-        <v>8.210000000000001</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H18" s="1">
         <v>27.15</v>
@@ -6296,7 +6258,7 @@
         <v>17.95</v>
       </c>
       <c r="V18" s="1">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="W18" s="1">
         <v>16.8</v>
@@ -6353,7 +6315,7 @@
         <v>7.15</v>
       </c>
       <c r="AO18" s="1">
-        <v>19.56</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="AP18" s="1">
         <v>7.92</v>
@@ -6362,7 +6324,7 @@
         <v>7.72</v>
       </c>
       <c r="AR18" s="1">
-        <v>33.05</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="AS18" s="1">
         <v>23.43</v>
@@ -6383,7 +6345,7 @@
         <v>32.22</v>
       </c>
       <c r="AY18" s="1">
-        <v>16.94</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>12.27</v>
@@ -6395,7 +6357,7 @@
         <v>11.35</v>
       </c>
       <c r="BC18" s="1">
-        <v>37.02</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="BD18" s="1">
         <v>24.12</v>
@@ -6500,7 +6462,7 @@
         <v>0.97</v>
       </c>
       <c r="CL18" s="1">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="CM18" s="1">
         <v>11.29</v>
@@ -6539,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:102">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -6562,10 +6524,10 @@
         <v>9.09</v>
       </c>
       <c r="H19" s="1">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="J19" s="1">
         <v>15.53</v>
@@ -6586,7 +6548,7 @@
         <v>12.08</v>
       </c>
       <c r="P19" s="1">
-        <v>8.119999999999999</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="Q19" s="1">
         <v>20.2</v>
@@ -6595,7 +6557,7 @@
         <v>62.6</v>
       </c>
       <c r="S19" s="1">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T19" s="1">
         <v>13.19</v>
@@ -6607,13 +6569,13 @@
         <v>9.06</v>
       </c>
       <c r="W19" s="1">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="X19" s="1">
         <v>40.1</v>
       </c>
       <c r="Y19" s="1">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="Z19" s="1">
         <v>6.5</v>
@@ -6664,7 +6626,7 @@
         <v>24.16</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.22</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="AQ19" s="1">
         <v>8.6</v>
@@ -6682,7 +6644,7 @@
         <v>29.58</v>
       </c>
       <c r="AV19" s="1">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="AW19" s="1">
         <v>14.28</v>
@@ -6715,7 +6677,7 @@
         <v>17.13</v>
       </c>
       <c r="BG19" s="1">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="BH19" s="1">
         <v>5.86</v>
@@ -6757,7 +6719,7 @@
         <v>3.53</v>
       </c>
       <c r="BU19" s="1">
-        <v>17.31</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="BV19" s="1">
         <v>11.01</v>
@@ -6766,7 +6728,7 @@
         <v>5.3</v>
       </c>
       <c r="BX19" s="1">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="BY19" s="1">
         <v>0.22</v>
@@ -6775,7 +6737,7 @@
         <v>0.73</v>
       </c>
       <c r="CA19" s="1">
-        <v>17.51</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="CB19" s="1">
         <v>11.78</v>
@@ -6802,7 +6764,7 @@
         <v>1.5</v>
       </c>
       <c r="CJ19" s="1">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="CK19" s="1">
         <v>1.24</v>
@@ -6817,7 +6779,7 @@
         <v>7.32</v>
       </c>
       <c r="CO19" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="CP19" s="1">
         <v>0</v>
@@ -6847,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:102">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -6870,7 +6832,7 @@
         <v>9.75</v>
       </c>
       <c r="H20" s="1">
-        <v>40.12</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="I20" s="1">
         <v>22.42</v>
@@ -6906,13 +6868,13 @@
         <v>20.54</v>
       </c>
       <c r="T20" s="1">
-        <v>16.26</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="U20" s="1">
         <v>20.96</v>
       </c>
       <c r="V20" s="1">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="W20" s="1">
         <v>23.3</v>
@@ -6945,7 +6907,7 @@
         <v>28.01</v>
       </c>
       <c r="AG20" s="1">
-        <v>17.01</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="AH20" s="1">
         <v>13.26</v>
@@ -6954,7 +6916,7 @@
         <v>32.1</v>
       </c>
       <c r="AJ20" s="1">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AK20" s="1">
         <v>10.6</v>
@@ -6963,7 +6925,7 @@
         <v>15.16</v>
       </c>
       <c r="AM20" s="1">
-        <v>9.619999999999999</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="AN20" s="1">
         <v>7.35</v>
@@ -6984,7 +6946,7 @@
         <v>34.44</v>
       </c>
       <c r="AT20" s="1">
-        <v>16.15</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="AU20" s="1">
         <v>35.07</v>
@@ -7005,7 +6967,7 @@
         <v>13.6</v>
       </c>
       <c r="BA20" s="1">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="BB20" s="1">
         <v>13.27</v>
@@ -7155,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:102">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -7193,7 +7155,7 @@
         <v>20.68</v>
       </c>
       <c r="M21" s="1">
-        <v>9.859999999999999</v>
+        <v>9.86</v>
       </c>
       <c r="N21" s="1">
         <v>13.87</v>
@@ -7211,7 +7173,7 @@
         <v>51.65</v>
       </c>
       <c r="S21" s="1">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="T21" s="1">
         <v>17.66</v>
@@ -7220,7 +7182,7 @@
         <v>17.48</v>
       </c>
       <c r="V21" s="1">
-        <v>9.109999999999999</v>
+        <v>9.11</v>
       </c>
       <c r="W21" s="1">
         <v>26</v>
@@ -7229,13 +7191,13 @@
         <v>45.1</v>
       </c>
       <c r="Y21" s="1">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="Z21" s="1">
         <v>7.2</v>
       </c>
       <c r="AA21" s="1">
-        <v>79.51000000000001</v>
+        <v>79.510000000000005</v>
       </c>
       <c r="AB21" s="1">
         <v>23.33</v>
@@ -7259,7 +7221,7 @@
         <v>13.11</v>
       </c>
       <c r="AI21" s="1">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AJ21" s="1">
         <v>12.1</v>
@@ -7271,7 +7233,7 @@
         <v>13.82</v>
       </c>
       <c r="AM21" s="1">
-        <v>8.039999999999999</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="AN21" s="1">
         <v>7.39</v>
@@ -7283,7 +7245,7 @@
         <v>9.93</v>
       </c>
       <c r="AQ21" s="1">
-        <v>9.359999999999999</v>
+        <v>9.36</v>
       </c>
       <c r="AR21" s="1">
         <v>46.71</v>
@@ -7328,7 +7290,7 @@
         <v>22.61</v>
       </c>
       <c r="BF21" s="1">
-        <v>17.51</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="BG21" s="1">
         <v>6.96</v>
@@ -7373,7 +7335,7 @@
         <v>3.42</v>
       </c>
       <c r="BU21" s="1">
-        <v>18.49</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="BV21" s="1">
         <v>10.17</v>
@@ -7388,10 +7350,10 @@
         <v>0.33</v>
       </c>
       <c r="BZ21" s="1">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="CA21" s="1">
-        <v>16.85</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="CB21" s="1">
         <v>12.23</v>
@@ -7406,7 +7368,7 @@
         <v>11.92</v>
       </c>
       <c r="CF21" s="1">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="CG21" s="1">
         <v>3.65</v>
@@ -7463,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:102">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -7474,7 +7436,7 @@
         <v>22.13</v>
       </c>
       <c r="D22" s="1">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="E22" s="1">
         <v>3.6</v>
@@ -7567,7 +7529,7 @@
         <v>12.59</v>
       </c>
       <c r="AI22" s="1">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AJ22" s="1">
         <v>11.3</v>
@@ -7591,7 +7553,7 @@
         <v>10.67</v>
       </c>
       <c r="AQ22" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AR22" s="1">
         <v>44.46</v>
@@ -7639,7 +7601,7 @@
         <v>17.37</v>
       </c>
       <c r="BG22" s="1">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="BH22" s="1">
         <v>5.98</v>
@@ -7666,7 +7628,7 @@
         <v>42.12</v>
       </c>
       <c r="BP22" s="1">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="BQ22" s="1">
         <v>13.24</v>
@@ -7693,7 +7655,7 @@
         <v>2.57</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BZ22" s="1">
         <v>0.83</v>
@@ -7732,10 +7694,10 @@
         <v>1.68</v>
       </c>
       <c r="CL22" s="1">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="CM22" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="CN22" s="1">
         <v>6.77</v>
@@ -7771,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:102">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -7800,16 +7762,16 @@
         <v>29.47</v>
       </c>
       <c r="J23" s="1">
-        <v>18.58</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="K23" s="1">
         <v>15.68</v>
       </c>
       <c r="L23" s="1">
-        <v>19.69</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="N23" s="1">
         <v>14.78</v>
@@ -7824,7 +7786,7 @@
         <v>22.1</v>
       </c>
       <c r="R23" s="1">
-        <v>70.06999999999999</v>
+        <v>70.069999999999993</v>
       </c>
       <c r="S23" s="1">
         <v>21.61</v>
@@ -7887,7 +7849,7 @@
         <v>14.64</v>
       </c>
       <c r="AM23" s="1">
-        <v>8.710000000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="AN23" s="1">
         <v>7.77</v>
@@ -7911,7 +7873,7 @@
         <v>18.45</v>
       </c>
       <c r="AU23" s="1">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="AV23" s="1">
         <v>25.78</v>
@@ -7920,7 +7882,7 @@
         <v>15.3</v>
       </c>
       <c r="AX23" s="1">
-        <v>39.52</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="AY23" s="1">
         <v>21.45</v>
@@ -7935,7 +7897,7 @@
         <v>15.2</v>
       </c>
       <c r="BC23" s="1">
-        <v>39.59</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="BD23" s="1">
         <v>36.56</v>
@@ -7947,7 +7909,7 @@
         <v>18.52</v>
       </c>
       <c r="BG23" s="1">
-        <v>9.140000000000001</v>
+        <v>9.14</v>
       </c>
       <c r="BH23" s="1">
         <v>7.56</v>
@@ -8010,7 +7972,7 @@
         <v>17</v>
       </c>
       <c r="CB23" s="1">
-        <v>16.01</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="CC23" s="1">
         <v>7.72</v>
@@ -8079,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:102">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -8096,7 +8058,7 @@
         <v>3.8</v>
       </c>
       <c r="F24" s="1">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G24" s="1">
         <v>11.39</v>
@@ -8105,7 +8067,7 @@
         <v>46.41</v>
       </c>
       <c r="I24" s="1">
-        <v>36.91</v>
+        <v>36.909999999999997</v>
       </c>
       <c r="J24" s="1">
         <v>20.93</v>
@@ -8120,13 +8082,13 @@
         <v>12.24</v>
       </c>
       <c r="N24" s="1">
-        <v>17.69</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="O24" s="1">
         <v>12.94</v>
       </c>
       <c r="P24" s="1">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="Q24" s="1">
         <v>28.5</v>
@@ -8198,13 +8160,13 @@
         <v>10.64</v>
       </c>
       <c r="AN24" s="1">
-        <v>8.720000000000001</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="AO24" s="1">
         <v>30.03</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.15</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="AQ24" s="1">
         <v>11.19</v>
@@ -8258,7 +8220,7 @@
         <v>11.47</v>
       </c>
       <c r="BH24" s="1">
-        <v>8.619999999999999</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="BI24" s="1">
         <v>0</v>
@@ -8318,13 +8280,13 @@
         <v>18.89</v>
       </c>
       <c r="CB24" s="1">
-        <v>20.42</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="CC24" s="1">
         <v>7.53</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="CE24" s="1">
         <v>21.05</v>
@@ -8342,7 +8304,7 @@
         <v>2</v>
       </c>
       <c r="CJ24" s="1">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="CK24" s="1">
         <v>2.71</v>
@@ -8357,7 +8319,7 @@
         <v>8.67</v>
       </c>
       <c r="CO24" s="1">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="CP24" s="1">
         <v>0</v>
@@ -8387,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:102">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -8404,7 +8366,7 @@
         <v>3.89</v>
       </c>
       <c r="F25" s="1">
-        <v>39.52</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="G25" s="1">
         <v>11.71</v>
@@ -8419,7 +8381,7 @@
         <v>21.67</v>
       </c>
       <c r="K25" s="1">
-        <v>18.19</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="L25" s="1">
         <v>30.72</v>
@@ -8434,19 +8396,19 @@
         <v>15.99</v>
       </c>
       <c r="P25" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q25" s="1">
         <v>26.3</v>
       </c>
       <c r="R25" s="1">
-        <v>97.56999999999999</v>
+        <v>97.57</v>
       </c>
       <c r="S25" s="1">
         <v>24.73</v>
       </c>
       <c r="T25" s="1">
-        <v>19.56</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="U25" s="1">
         <v>29.86</v>
@@ -8467,7 +8429,7 @@
         <v>7.57</v>
       </c>
       <c r="AA25" s="1">
-        <v>128.23</v>
+        <v>128.22999999999999</v>
       </c>
       <c r="AB25" s="1">
         <v>29.06</v>
@@ -8479,7 +8441,7 @@
         <v>56.43</v>
       </c>
       <c r="AE25" s="1">
-        <v>34.37</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="AF25" s="1">
         <v>31.98</v>
@@ -8512,7 +8474,7 @@
         <v>29.14</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.83</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="AQ25" s="1">
         <v>14.27</v>
@@ -8614,7 +8576,7 @@
         <v>6.91</v>
       </c>
       <c r="BX25" s="1">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="BY25" s="1">
         <v>0.59</v>
@@ -8656,16 +8618,16 @@
         <v>3.35</v>
       </c>
       <c r="CL25" s="1">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="CM25" s="1">
         <v>11.41</v>
       </c>
       <c r="CN25" s="1">
-        <v>9.960000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="CO25" s="1">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="CP25" s="1">
         <v>0</v>
@@ -8695,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:102">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -8766,13 +8728,13 @@
         <v>27.5</v>
       </c>
       <c r="X26" s="1">
-        <v>64.59999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="Y26" s="1">
         <v>23.6</v>
       </c>
       <c r="Z26" s="1">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="AA26" s="1">
         <v>132.82</v>
@@ -8787,7 +8749,7 @@
         <v>61.74</v>
       </c>
       <c r="AE26" s="1">
-        <v>35.37</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="AF26" s="1">
         <v>39.78</v>
@@ -8814,7 +8776,7 @@
         <v>14.74</v>
       </c>
       <c r="AN26" s="1">
-        <v>9.529999999999999</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="AO26" s="1">
         <v>31.99</v>
@@ -8847,7 +8809,7 @@
         <v>47.45</v>
       </c>
       <c r="AY26" s="1">
-        <v>38.37</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="AZ26" s="1">
         <v>17.02</v>
@@ -8871,7 +8833,7 @@
         <v>25.57</v>
       </c>
       <c r="BG26" s="1">
-        <v>16.01</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="BH26" s="1">
         <v>11.89</v>
@@ -8886,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="BL26" s="1">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BM26" s="1">
         <v>20.82</v>
@@ -8898,7 +8860,7 @@
         <v>45.63</v>
       </c>
       <c r="BP26" s="1">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="BQ26" s="1">
         <v>17.46</v>
@@ -8928,7 +8890,7 @@
         <v>0.72</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="CA26" s="1">
         <v>20.78</v>
@@ -8937,10 +8899,10 @@
         <v>27.18</v>
       </c>
       <c r="CC26" s="1">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.880000000000001</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="CE26" s="1">
         <v>24.7</v>
@@ -8949,7 +8911,7 @@
         <v>6.59</v>
       </c>
       <c r="CG26" s="1">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="CH26" s="1">
         <v>3.71</v>
@@ -8964,13 +8926,13 @@
         <v>3.84</v>
       </c>
       <c r="CL26" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="CM26" s="1">
         <v>10.79</v>
       </c>
       <c r="CN26" s="1">
-        <v>8.970000000000001</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="CO26" s="1">
         <v>4.63</v>
@@ -9003,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:102">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -9038,7 +9000,7 @@
         <v>18.7</v>
       </c>
       <c r="L27" s="1">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="M27" s="1">
         <v>14.2</v>
@@ -9050,7 +9012,7 @@
         <v>18.14</v>
       </c>
       <c r="P27" s="1">
-        <v>9.710000000000001</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="Q27" s="1">
         <v>31.4</v>
@@ -9080,22 +9042,22 @@
         <v>24.1</v>
       </c>
       <c r="Z27" s="1">
-        <v>8.970000000000001</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="AA27" s="1">
-        <v>142.39</v>
+        <v>142.38999999999999</v>
       </c>
       <c r="AB27" s="1">
         <v>33.99</v>
       </c>
       <c r="AC27" s="1">
-        <v>64.73999999999999</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="AD27" s="1">
         <v>69.28</v>
       </c>
       <c r="AE27" s="1">
-        <v>36.91</v>
+        <v>36.909999999999997</v>
       </c>
       <c r="AF27" s="1">
         <v>39.22</v>
@@ -9116,13 +9078,13 @@
         <v>14.9</v>
       </c>
       <c r="AL27" s="1">
-        <v>18.56</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="AM27" s="1">
         <v>16.12</v>
       </c>
       <c r="AN27" s="1">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="AO27" s="1">
         <v>31.13</v>
@@ -9137,7 +9099,7 @@
         <v>61.92</v>
       </c>
       <c r="AS27" s="1">
-        <v>65.98999999999999</v>
+        <v>65.989999999999995</v>
       </c>
       <c r="AT27" s="1">
         <v>26.42</v>
@@ -9215,7 +9177,7 @@
         <v>15.62</v>
       </c>
       <c r="BS27" s="1">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="BT27" s="1">
         <v>4.57</v>
@@ -9224,7 +9186,7 @@
         <v>27.23</v>
       </c>
       <c r="BV27" s="1">
-        <v>18.85</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="BW27" s="1">
         <v>8.49</v>
@@ -9236,7 +9198,7 @@
         <v>0.85</v>
       </c>
       <c r="BZ27" s="1">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="CA27" s="1">
         <v>22.17</v>
@@ -9257,10 +9219,10 @@
         <v>7.46</v>
       </c>
       <c r="CG27" s="1">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="CH27" s="1">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="CI27" s="1">
         <v>2.62</v>
@@ -9269,7 +9231,7 @@
         <v>2.4</v>
       </c>
       <c r="CK27" s="1">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="CL27" s="1">
         <v>2.41</v>
@@ -9311,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:102">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>129</v>
       </c>
@@ -9382,16 +9344,16 @@
         <v>32.6</v>
       </c>
       <c r="X28" s="1">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y28" s="1">
         <v>25.3</v>
       </c>
       <c r="Z28" s="1">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="AA28" s="1">
-        <v>147.86</v>
+        <v>147.86000000000001</v>
       </c>
       <c r="AB28" s="1">
         <v>36.14</v>
@@ -9463,10 +9425,10 @@
         <v>56.8</v>
       </c>
       <c r="AY28" s="1">
-        <v>32.05</v>
+        <v>32.049999999999997</v>
       </c>
       <c r="AZ28" s="1">
-        <v>18.49</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="BA28" s="1">
         <v>53.17</v>
@@ -9541,10 +9503,10 @@
         <v>2.81</v>
       </c>
       <c r="BY28" s="1">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="BZ28" s="1">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="CA28" s="1">
         <v>23.24</v>
@@ -9568,7 +9530,7 @@
         <v>4.66</v>
       </c>
       <c r="CH28" s="1">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="CI28" s="1">
         <v>2.79</v>
@@ -9589,7 +9551,7 @@
         <v>10.15</v>
       </c>
       <c r="CO28" s="1">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="CP28" s="1">
         <v>0</v>
@@ -9619,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:102">
+    <row r="29" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -9660,7 +9622,7 @@
         <v>14.34</v>
       </c>
       <c r="N29" s="1">
-        <v>18.15</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="O29" s="1">
         <v>20.02</v>
@@ -9690,13 +9652,13 @@
         <v>33.4</v>
       </c>
       <c r="X29" s="1">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="Y29" s="1">
         <v>26.5</v>
       </c>
       <c r="Z29" s="1">
-        <v>8.220000000000001</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="AA29" s="1">
         <v>157.54</v>
@@ -9714,13 +9676,13 @@
         <v>36.96</v>
       </c>
       <c r="AF29" s="1">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AG29" s="1">
         <v>28.63</v>
       </c>
       <c r="AH29" s="1">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AI29" s="1">
         <v>50</v>
@@ -9729,13 +9691,13 @@
         <v>29.2</v>
       </c>
       <c r="AK29" s="1">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="AL29" s="1">
         <v>19.43</v>
       </c>
       <c r="AM29" s="1">
-        <v>17.81</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="AN29" s="1">
         <v>9.24</v>
@@ -9750,7 +9712,7 @@
         <v>14.84</v>
       </c>
       <c r="AR29" s="1">
-        <v>65.54000000000001</v>
+        <v>65.540000000000006</v>
       </c>
       <c r="AS29" s="1">
         <v>75.31</v>
@@ -9810,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="BL29" s="1">
-        <v>18.81</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="BM29" s="1">
         <v>24</v>
@@ -9831,7 +9793,7 @@
         <v>16.16</v>
       </c>
       <c r="BS29" s="1">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="BT29" s="1">
         <v>5.48</v>
@@ -9873,7 +9835,7 @@
         <v>9.18</v>
       </c>
       <c r="CG29" s="1">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="CH29" s="1">
         <v>4.76</v>
@@ -9927,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:102">
+    <row r="30" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -9977,7 +9939,7 @@
         <v>10.81</v>
       </c>
       <c r="Q30" s="1">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="R30" s="1">
         <v>140.28</v>
@@ -9986,7 +9948,7 @@
         <v>29.01</v>
       </c>
       <c r="T30" s="1">
-        <v>16.81</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="U30" s="1">
         <v>37.47</v>
@@ -10004,10 +9966,10 @@
         <v>25.3</v>
       </c>
       <c r="Z30" s="1">
-        <v>8.789999999999999</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="AA30" s="1">
-        <v>158.89</v>
+        <v>158.88999999999999</v>
       </c>
       <c r="AB30" s="1">
         <v>40.44</v>
@@ -10016,10 +9978,10 @@
         <v>62.38</v>
       </c>
       <c r="AD30" s="1">
-        <v>85.04000000000001</v>
+        <v>85.04</v>
       </c>
       <c r="AE30" s="1">
-        <v>40.55</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="AF30" s="1">
         <v>39.57</v>
@@ -10037,7 +9999,7 @@
         <v>31.4</v>
       </c>
       <c r="AK30" s="1">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="AL30" s="1">
         <v>18.87</v>
@@ -10049,7 +10011,7 @@
         <v>10.68</v>
       </c>
       <c r="AO30" s="1">
-        <v>32.09</v>
+        <v>32.090000000000003</v>
       </c>
       <c r="AP30" s="1">
         <v>17.98</v>
@@ -10079,7 +10041,7 @@
         <v>57.87</v>
       </c>
       <c r="AY30" s="1">
-        <v>34.48</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="AZ30" s="1">
         <v>22.29</v>
@@ -10136,13 +10098,13 @@
         <v>27.56</v>
       </c>
       <c r="BR30" s="1">
-        <v>16.94</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="BS30" s="1">
         <v>8</v>
       </c>
       <c r="BT30" s="1">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="BU30" s="1">
         <v>25.7</v>
@@ -10151,7 +10113,7 @@
         <v>14.96</v>
       </c>
       <c r="BW30" s="1">
-        <v>8.609999999999999</v>
+        <v>8.61</v>
       </c>
       <c r="BX30" s="1">
         <v>2.96</v>
@@ -10178,13 +10140,13 @@
         <v>34.43</v>
       </c>
       <c r="CF30" s="1">
-        <v>8.470000000000001</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="CG30" s="1">
         <v>4.57</v>
       </c>
       <c r="CH30" s="1">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="CI30" s="1">
         <v>3.11</v>
@@ -10235,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:102">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -10243,7 +10205,7 @@
         <v>5.17</v>
       </c>
       <c r="C31" s="1">
-        <v>67.26000000000001</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="D31" s="1">
         <v>26.66</v>
@@ -10261,13 +10223,13 @@
         <v>48.42</v>
       </c>
       <c r="I31" s="1">
-        <v>78.73999999999999</v>
+        <v>78.739999999999995</v>
       </c>
       <c r="J31" s="1">
         <v>31.02</v>
       </c>
       <c r="K31" s="1">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="L31" s="1">
         <v>39.57</v>
@@ -10276,7 +10238,7 @@
         <v>16.71</v>
       </c>
       <c r="N31" s="1">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="O31" s="1">
         <v>21.6</v>
@@ -10294,10 +10256,10 @@
         <v>30.7</v>
       </c>
       <c r="T31" s="1">
-        <v>19.76</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="U31" s="1">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="V31" s="1">
         <v>13.95</v>
@@ -10306,7 +10268,7 @@
         <v>38</v>
       </c>
       <c r="X31" s="1">
-        <v>92.09999999999999</v>
+        <v>92.1</v>
       </c>
       <c r="Y31" s="1">
         <v>25.7</v>
@@ -10342,7 +10304,7 @@
         <v>52.9</v>
       </c>
       <c r="AJ31" s="1">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AK31" s="1">
         <v>20.5</v>
@@ -10357,16 +10319,16 @@
         <v>11.3</v>
       </c>
       <c r="AO31" s="1">
-        <v>34.23</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="AP31" s="1">
         <v>24.2</v>
       </c>
       <c r="AQ31" s="1">
-        <v>16.35</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="AR31" s="1">
-        <v>79.01000000000001</v>
+        <v>79.010000000000005</v>
       </c>
       <c r="AS31" s="1">
         <v>95.34</v>
@@ -10402,7 +10364,7 @@
         <v>47.49</v>
       </c>
       <c r="BD31" s="1">
-        <v>79.18000000000001</v>
+        <v>79.180000000000007</v>
       </c>
       <c r="BE31" s="1">
         <v>42.23</v>
@@ -10459,7 +10421,7 @@
         <v>21.45</v>
       </c>
       <c r="BW31" s="1">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="BX31" s="1">
         <v>3.1</v>
@@ -10474,7 +10436,7 @@
         <v>24.09</v>
       </c>
       <c r="CB31" s="1">
-        <v>33.88</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="CC31" s="1">
         <v>12.02</v>
@@ -10543,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:102">
+    <row r="32" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -10551,7 +10513,7 @@
         <v>5.63</v>
       </c>
       <c r="C32" s="1">
-        <v>77.43000000000001</v>
+        <v>77.430000000000007</v>
       </c>
       <c r="D32" s="1">
         <v>25.78</v>
@@ -10572,7 +10534,7 @@
         <v>92.38</v>
       </c>
       <c r="J32" s="1">
-        <v>38.48</v>
+        <v>38.479999999999997</v>
       </c>
       <c r="K32" s="1">
         <v>18.2</v>
@@ -10629,7 +10591,7 @@
         <v>50.76</v>
       </c>
       <c r="AC32" s="1">
-        <v>68.70999999999999</v>
+        <v>68.709999999999994</v>
       </c>
       <c r="AD32" s="1">
         <v>131.09</v>
@@ -10671,7 +10633,7 @@
         <v>33.08</v>
       </c>
       <c r="AQ32" s="1">
-        <v>17.74</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="AR32" s="1">
         <v>75.06</v>
@@ -10725,7 +10687,7 @@
         <v>19.03</v>
       </c>
       <c r="BI32" s="1">
-        <v>8.720000000000001</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="BJ32" s="1">
         <v>3.65</v>
@@ -10752,13 +10714,13 @@
         <v>36.86</v>
       </c>
       <c r="BR32" s="1">
-        <v>19.42</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="BS32" s="1">
         <v>18.73</v>
       </c>
       <c r="BT32" s="1">
-        <v>8.470000000000001</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="BU32" s="1">
         <v>29.46</v>
@@ -10818,7 +10780,7 @@
         <v>13.97</v>
       </c>
       <c r="CN32" s="1">
-        <v>18.35</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="CO32" s="1">
         <v>6.75</v>
@@ -10851,7 +10813,7 @@
         <v>123.31</v>
       </c>
     </row>
-    <row r="33" spans="1:102">
+    <row r="33" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -10859,7 +10821,7 @@
         <v>5.17</v>
       </c>
       <c r="C33" s="1">
-        <v>85.18000000000001</v>
+        <v>85.18</v>
       </c>
       <c r="D33" s="1">
         <v>29.76</v>
@@ -10868,7 +10830,7 @@
         <v>6.54</v>
       </c>
       <c r="F33" s="1">
-        <v>64.81999999999999</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="G33" s="1">
         <v>21.65</v>
@@ -10901,7 +10863,7 @@
         <v>14.74</v>
       </c>
       <c r="Q33" s="1">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="R33" s="1">
         <v>166.4</v>
@@ -10916,7 +10878,7 @@
         <v>49.22</v>
       </c>
       <c r="V33" s="1">
-        <v>16.56</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="W33" s="1">
         <v>44.3</v>
@@ -10940,7 +10902,7 @@
         <v>104.04</v>
       </c>
       <c r="AD33" s="1">
-        <v>141.14</v>
+        <v>141.13999999999999</v>
       </c>
       <c r="AE33" s="1">
         <v>53.37</v>
@@ -10949,7 +10911,7 @@
         <v>67.56</v>
       </c>
       <c r="AG33" s="1">
-        <v>64.06999999999999</v>
+        <v>64.069999999999993</v>
       </c>
       <c r="AH33" s="1">
         <v>26.12</v>
@@ -10976,7 +10938,7 @@
         <v>48.7</v>
       </c>
       <c r="AP33" s="1">
-        <v>36.41</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="AQ33" s="1">
         <v>19.04</v>
@@ -10988,7 +10950,7 @@
         <v>127.68</v>
       </c>
       <c r="AT33" s="1">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="AU33" s="1">
         <v>77.3</v>
@@ -10997,10 +10959,10 @@
         <v>80.52</v>
       </c>
       <c r="AW33" s="1">
-        <v>32.27</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="AX33" s="1">
-        <v>85.15000000000001</v>
+        <v>85.15</v>
       </c>
       <c r="AY33" s="1">
         <v>73.03</v>
@@ -11009,7 +10971,7 @@
         <v>30.28</v>
       </c>
       <c r="BA33" s="1">
-        <v>79.40000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="BB33" s="1">
         <v>30.19</v>
@@ -11018,7 +10980,7 @@
         <v>66.62</v>
       </c>
       <c r="BD33" s="1">
-        <v>91.65000000000001</v>
+        <v>91.65</v>
       </c>
       <c r="BE33" s="1">
         <v>51.06</v>
@@ -11069,7 +11031,7 @@
         <v>9.58</v>
       </c>
       <c r="BU33" s="1">
-        <v>32.38</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="BV33" s="1">
         <v>30.5</v>
@@ -11087,13 +11049,13 @@
         <v>1.78</v>
       </c>
       <c r="CA33" s="1">
-        <v>32.52</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="CB33" s="1">
         <v>44.67</v>
       </c>
       <c r="CC33" s="1">
-        <v>17.33</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="CD33" s="1">
         <v>12.89</v>
@@ -11159,7 +11121,7 @@
         <v>133.32</v>
       </c>
     </row>
-    <row r="34" spans="1:102">
+    <row r="34" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -11167,7 +11129,7 @@
         <v>6.07</v>
       </c>
       <c r="C34" s="1">
-        <v>95.79000000000001</v>
+        <v>95.79</v>
       </c>
       <c r="D34" s="1">
         <v>37.21</v>
@@ -11245,7 +11207,7 @@
         <v>65.69</v>
       </c>
       <c r="AC34" s="1">
-        <v>94.23999999999999</v>
+        <v>94.24</v>
       </c>
       <c r="AD34" s="1">
         <v>167.41</v>
@@ -11257,13 +11219,13 @@
         <v>64.61</v>
       </c>
       <c r="AG34" s="1">
-        <v>84.06999999999999</v>
+        <v>84.07</v>
       </c>
       <c r="AH34" s="1">
         <v>31.24</v>
       </c>
       <c r="AI34" s="1">
-        <v>64.68000000000001</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="AJ34" s="1">
         <v>50.06</v>
@@ -11293,7 +11255,7 @@
         <v>106.43</v>
       </c>
       <c r="AS34" s="1">
-        <v>146.11</v>
+        <v>146.11000000000001</v>
       </c>
       <c r="AT34" s="1">
         <v>39.61</v>
@@ -11320,7 +11282,7 @@
         <v>81.14</v>
       </c>
       <c r="BB34" s="1">
-        <v>33.59</v>
+        <v>33.590000000000003</v>
       </c>
       <c r="BC34" s="1">
         <v>82.97</v>
@@ -11362,7 +11324,7 @@
         <v>101.68</v>
       </c>
       <c r="BP34" s="1">
-        <v>81.06999999999999</v>
+        <v>81.069999999999993</v>
       </c>
       <c r="BQ34" s="1">
         <v>46.58</v>
@@ -11380,7 +11342,7 @@
         <v>35.89</v>
       </c>
       <c r="BV34" s="1">
-        <v>33.98</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="BW34" s="1">
         <v>14.4</v>
@@ -11389,7 +11351,7 @@
         <v>4.66</v>
       </c>
       <c r="BY34" s="1">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="BZ34" s="1">
         <v>1.88</v>
@@ -11464,10 +11426,10 @@
         <v>487.58</v>
       </c>
       <c r="CX34" s="1">
-        <v>155.08</v>
+        <v>155.08000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:102">
+    <row r="35" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -11478,7 +11440,7 @@
         <v>92.55</v>
       </c>
       <c r="D35" s="1">
-        <v>40.02</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="E35" s="1">
         <v>5.18</v>
@@ -11541,7 +11503,7 @@
         <v>132.4</v>
       </c>
       <c r="Y35" s="1">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="Z35" s="1">
         <v>10.58</v>
@@ -11565,7 +11527,7 @@
         <v>69.06</v>
       </c>
       <c r="AG35" s="1">
-        <v>94.68000000000001</v>
+        <v>94.68</v>
       </c>
       <c r="AH35" s="1">
         <v>41.12</v>
@@ -11580,7 +11542,7 @@
         <v>29.59</v>
       </c>
       <c r="AL35" s="1">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="AM35" s="1">
         <v>39.75</v>
@@ -11610,7 +11572,7 @@
         <v>106.04</v>
       </c>
       <c r="AV35" s="1">
-        <v>95.79000000000001</v>
+        <v>95.79</v>
       </c>
       <c r="AW35" s="1">
         <v>47.86</v>
@@ -11619,13 +11581,13 @@
         <v>87</v>
       </c>
       <c r="AY35" s="1">
-        <v>92.84999999999999</v>
+        <v>92.85</v>
       </c>
       <c r="AZ35" s="1">
         <v>39.9</v>
       </c>
       <c r="BA35" s="1">
-        <v>93.29000000000001</v>
+        <v>93.29</v>
       </c>
       <c r="BB35" s="1">
         <v>38.61</v>
@@ -11637,7 +11599,7 @@
         <v>120.34</v>
       </c>
       <c r="BE35" s="1">
-        <v>75.70999999999999</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="BF35" s="1">
         <v>52.58</v>
@@ -11664,7 +11626,7 @@
         <v>43.69</v>
       </c>
       <c r="BN35" s="1">
-        <v>17.19</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="BO35" s="1">
         <v>108.02</v>
@@ -11688,10 +11650,10 @@
         <v>41.23</v>
       </c>
       <c r="BV35" s="1">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="BW35" s="1">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="BX35" s="1">
         <v>6.3</v>
@@ -11703,19 +11665,19 @@
         <v>2.42</v>
       </c>
       <c r="CA35" s="1">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="CB35" s="1">
         <v>46.25</v>
       </c>
       <c r="CC35" s="1">
-        <v>20.44</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="CD35" s="1">
         <v>17.63</v>
       </c>
       <c r="CE35" s="1">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="CF35" s="1">
         <v>17.96</v>
@@ -11769,13 +11731,13 @@
         <v>189.03</v>
       </c>
       <c r="CW35" s="1">
-        <v>516.4299999999999</v>
+        <v>516.42999999999995</v>
       </c>
       <c r="CX35" s="1">
         <v>173.58</v>
       </c>
     </row>
-    <row r="36" spans="1:102">
+    <row r="36" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -11783,7 +11745,7 @@
         <v>10.34</v>
       </c>
       <c r="C36" s="1">
-        <v>99.81999999999999</v>
+        <v>99.82</v>
       </c>
       <c r="D36" s="1">
         <v>44.82</v>
@@ -11912,7 +11874,7 @@
         <v>166.05</v>
       </c>
       <c r="AT36" s="1">
-        <v>75.26000000000001</v>
+        <v>75.260000000000005</v>
       </c>
       <c r="AU36" s="1">
         <v>108.18</v>
@@ -11966,7 +11928,7 @@
         <v>7.57</v>
       </c>
       <c r="BL36" s="1">
-        <v>40.62</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="BM36" s="1">
         <v>47.14</v>
@@ -11984,7 +11946,7 @@
         <v>57.03</v>
       </c>
       <c r="BR36" s="1">
-        <v>37.37</v>
+        <v>37.369999999999997</v>
       </c>
       <c r="BS36" s="1">
         <v>27.44</v>
@@ -12011,7 +11973,7 @@
         <v>2.5</v>
       </c>
       <c r="CA36" s="1">
-        <v>37.05</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="CB36" s="1">
         <v>50.36</v>
@@ -12032,7 +11994,7 @@
         <v>5.56</v>
       </c>
       <c r="CH36" s="1">
-        <v>8.029999999999999</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="CI36" s="1">
         <v>6.36</v>
@@ -12083,7 +12045,7 @@
         <v>194.63</v>
       </c>
     </row>
-    <row r="37" spans="1:102">
+    <row r="37" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -12100,7 +12062,7 @@
         <v>7.6</v>
       </c>
       <c r="F37" s="1">
-        <v>84.48999999999999</v>
+        <v>84.49</v>
       </c>
       <c r="G37" s="1">
         <v>31.35</v>
@@ -12115,7 +12077,7 @@
         <v>66.22</v>
       </c>
       <c r="K37" s="1">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="L37" s="1">
         <v>82.55</v>
@@ -12139,7 +12101,7 @@
         <v>219.7</v>
       </c>
       <c r="S37" s="1">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="T37" s="1">
         <v>56.74</v>
@@ -12151,10 +12113,10 @@
         <v>28.02</v>
       </c>
       <c r="W37" s="1">
-        <v>78.90000000000001</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="X37" s="1">
-        <v>150.7</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="Y37" s="1">
         <v>47.3</v>
@@ -12175,7 +12137,7 @@
         <v>210.81</v>
       </c>
       <c r="AE37" s="1">
-        <v>76.43000000000001</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="AF37" s="1">
         <v>82.89</v>
@@ -12190,7 +12152,7 @@
         <v>96.55</v>
       </c>
       <c r="AJ37" s="1">
-        <v>73.40000000000001</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="AK37" s="1">
         <v>45.93</v>
@@ -12229,7 +12191,7 @@
         <v>116.36</v>
       </c>
       <c r="AW37" s="1">
-        <v>68.09999999999999</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="AX37" s="1">
         <v>105.4</v>
@@ -12250,16 +12212,16 @@
         <v>121.24</v>
       </c>
       <c r="BD37" s="1">
-        <v>152.27</v>
+        <v>152.27000000000001</v>
       </c>
       <c r="BE37" s="1">
-        <v>95.23999999999999</v>
+        <v>95.24</v>
       </c>
       <c r="BF37" s="1">
         <v>63.59</v>
       </c>
       <c r="BG37" s="1">
-        <v>37.09</v>
+        <v>37.090000000000003</v>
       </c>
       <c r="BH37" s="1">
         <v>33.92</v>
@@ -12271,7 +12233,7 @@
         <v>4.47</v>
       </c>
       <c r="BK37" s="1">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="BL37" s="1">
         <v>45.44</v>
@@ -12283,7 +12245,7 @@
         <v>24.01</v>
       </c>
       <c r="BO37" s="1">
-        <v>138.17</v>
+        <v>138.16999999999999</v>
       </c>
       <c r="BP37" s="1">
         <v>105.7</v>
@@ -12316,7 +12278,7 @@
         <v>2.59</v>
       </c>
       <c r="BZ37" s="1">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CA37" s="1">
         <v>40</v>
@@ -12355,7 +12317,7 @@
         <v>6.29</v>
       </c>
       <c r="CM37" s="1">
-        <v>32.84</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="CN37" s="1">
         <v>29.1</v>
@@ -12391,7 +12353,7 @@
         <v>220.48</v>
       </c>
     </row>
-    <row r="38" spans="1:102">
+    <row r="38" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -12438,22 +12400,22 @@
         <v>47.74</v>
       </c>
       <c r="P38" s="1">
-        <v>37.48</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="Q38" s="1">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="R38" s="1">
         <v>268.2</v>
       </c>
       <c r="S38" s="1">
-        <v>89.59999999999999</v>
+        <v>89.6</v>
       </c>
       <c r="T38" s="1">
         <v>60.04</v>
       </c>
       <c r="U38" s="1">
-        <v>80.45999999999999</v>
+        <v>80.459999999999994</v>
       </c>
       <c r="V38" s="1">
         <v>33.89</v>
@@ -12468,7 +12430,7 @@
         <v>57.3</v>
       </c>
       <c r="Z38" s="1">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="AA38" s="1">
         <v>275.37</v>
@@ -12483,13 +12445,13 @@
         <v>250.39</v>
       </c>
       <c r="AE38" s="1">
-        <v>89.45999999999999</v>
+        <v>89.46</v>
       </c>
       <c r="AF38" s="1">
         <v>104.4</v>
       </c>
       <c r="AG38" s="1">
-        <v>141.48</v>
+        <v>141.47999999999999</v>
       </c>
       <c r="AH38" s="1">
         <v>77.37</v>
@@ -12519,7 +12481,7 @@
         <v>61.31</v>
       </c>
       <c r="AQ38" s="1">
-        <v>35.91</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="AR38" s="1">
         <v>222.13</v>
@@ -12564,7 +12526,7 @@
         <v>125.93</v>
       </c>
       <c r="BF38" s="1">
-        <v>66.26000000000001</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="BG38" s="1">
         <v>43.26</v>
@@ -12591,7 +12553,7 @@
         <v>30.35</v>
       </c>
       <c r="BO38" s="1">
-        <v>156.11</v>
+        <v>156.11000000000001</v>
       </c>
       <c r="BP38" s="1">
         <v>121.68</v>
@@ -12657,7 +12619,7 @@
         <v>7.82</v>
       </c>
       <c r="CK38" s="1">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="CL38" s="1">
         <v>7.49</v>
@@ -12690,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="CV38" s="1">
-        <v>300.66</v>
+        <v>300.66000000000003</v>
       </c>
       <c r="CW38" s="1">
         <v>667.24</v>
@@ -12699,18 +12661,18 @@
         <v>265.05</v>
       </c>
     </row>
-    <row r="39" spans="1:102">
+    <row r="39" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>140</v>
       </c>
       <c r="B39" s="1">
-        <v>17.81</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="C39" s="1">
         <v>153.66</v>
       </c>
       <c r="D39" s="1">
-        <v>85.65000000000001</v>
+        <v>85.65</v>
       </c>
       <c r="E39" s="1">
         <v>12.95</v>
@@ -12728,7 +12690,7 @@
         <v>184.26</v>
       </c>
       <c r="J39" s="1">
-        <v>92.15000000000001</v>
+        <v>92.15</v>
       </c>
       <c r="K39" s="1">
         <v>42.29</v>
@@ -12749,7 +12711,7 @@
         <v>53.34</v>
       </c>
       <c r="Q39" s="1">
-        <v>74.90000000000001</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="R39" s="1">
         <v>328.1</v>
@@ -12761,7 +12723,7 @@
         <v>55.74</v>
       </c>
       <c r="U39" s="1">
-        <v>97.20999999999999</v>
+        <v>97.21</v>
       </c>
       <c r="V39" s="1">
         <v>47.49</v>
@@ -12773,7 +12735,7 @@
         <v>205.1</v>
       </c>
       <c r="Y39" s="1">
-        <v>72.84999999999999</v>
+        <v>72.849999999999994</v>
       </c>
       <c r="Z39" s="1">
         <v>19.53</v>
@@ -12809,7 +12771,7 @@
         <v>117.84</v>
       </c>
       <c r="AK39" s="1">
-        <v>72.43000000000001</v>
+        <v>72.430000000000007</v>
       </c>
       <c r="AL39" s="1">
         <v>68.13</v>
@@ -12860,7 +12822,7 @@
         <v>147.72</v>
       </c>
       <c r="BB39" s="1">
-        <v>75.15000000000001</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="BC39" s="1">
         <v>171.87</v>
@@ -12872,7 +12834,7 @@
         <v>175.69</v>
       </c>
       <c r="BF39" s="1">
-        <v>77.48999999999999</v>
+        <v>77.489999999999995</v>
       </c>
       <c r="BG39" s="1">
         <v>54.69</v>
@@ -12884,7 +12846,7 @@
         <v>21.8</v>
       </c>
       <c r="BJ39" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="BK39" s="1">
         <v>12.16</v>
@@ -12893,7 +12855,7 @@
         <v>53.73</v>
       </c>
       <c r="BM39" s="1">
-        <v>73.48999999999999</v>
+        <v>73.489999999999995</v>
       </c>
       <c r="BN39" s="1">
         <v>37.1</v>
@@ -12902,7 +12864,7 @@
         <v>172.9</v>
       </c>
       <c r="BP39" s="1">
-        <v>148.11</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="BQ39" s="1">
         <v>100.14</v>
@@ -12917,16 +12879,16 @@
         <v>23.59</v>
       </c>
       <c r="BU39" s="1">
-        <v>66.06999999999999</v>
+        <v>66.069999999999993</v>
       </c>
       <c r="BV39" s="1">
         <v>65.41</v>
       </c>
       <c r="BW39" s="1">
-        <v>33.48</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="BX39" s="1">
-        <v>8.869999999999999</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="BY39" s="1">
         <v>3.08</v>
@@ -12953,7 +12915,7 @@
         <v>31.5</v>
       </c>
       <c r="CG39" s="1">
-        <v>8.640000000000001</v>
+        <v>8.64</v>
       </c>
       <c r="CH39" s="1">
         <v>13.39</v>
@@ -13007,7 +12969,7 @@
         <v>344.56</v>
       </c>
     </row>
-    <row r="40" spans="1:102">
+    <row r="40" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>141</v>
       </c>
@@ -13021,7 +12983,7 @@
         <v>100</v>
       </c>
       <c r="E40" s="1">
-        <v>16.51</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="F40" s="1">
         <v>123.33</v>
@@ -13045,7 +13007,7 @@
         <v>128.25</v>
       </c>
       <c r="M40" s="1">
-        <v>68.95999999999999</v>
+        <v>68.959999999999994</v>
       </c>
       <c r="N40" s="1">
         <v>54.64</v>
@@ -13057,7 +13019,7 @@
         <v>65.39</v>
       </c>
       <c r="Q40" s="1">
-        <v>92.90000000000001</v>
+        <v>92.9</v>
       </c>
       <c r="R40" s="1">
         <v>357.8</v>
@@ -13066,7 +13028,7 @@
         <v>154.6</v>
       </c>
       <c r="T40" s="1">
-        <v>64.34999999999999</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="U40" s="1">
         <v>104.3</v>
@@ -13084,7 +13046,7 @@
         <v>95.5</v>
       </c>
       <c r="Z40" s="1">
-        <v>19.69</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="AA40" s="1">
         <v>336.02</v>
@@ -13099,7 +13061,7 @@
         <v>376.32</v>
       </c>
       <c r="AE40" s="1">
-        <v>144.36</v>
+        <v>144.36000000000001</v>
       </c>
       <c r="AF40" s="1">
         <v>136.29</v>
@@ -13120,7 +13082,7 @@
         <v>89.28</v>
       </c>
       <c r="AL40" s="1">
-        <v>72.23999999999999</v>
+        <v>72.239999999999995</v>
       </c>
       <c r="AM40" s="1">
         <v>82.19</v>
@@ -13132,7 +13094,7 @@
         <v>90.27</v>
       </c>
       <c r="AP40" s="1">
-        <v>83.59999999999999</v>
+        <v>83.6</v>
       </c>
       <c r="AQ40" s="1">
         <v>56.95</v>
@@ -13141,7 +13103,7 @@
         <v>252.73</v>
       </c>
       <c r="AS40" s="1">
-        <v>313.21</v>
+        <v>313.20999999999998</v>
       </c>
       <c r="AT40" s="1">
         <v>176.11</v>
@@ -13156,7 +13118,7 @@
         <v>121.74</v>
       </c>
       <c r="AX40" s="1">
-        <v>163.61</v>
+        <v>163.61000000000001</v>
       </c>
       <c r="AY40" s="1">
         <v>187.96</v>
@@ -13225,19 +13187,19 @@
         <v>32.15</v>
       </c>
       <c r="BU40" s="1">
-        <v>71.31999999999999</v>
+        <v>71.319999999999993</v>
       </c>
       <c r="BV40" s="1">
         <v>70.83</v>
       </c>
       <c r="BW40" s="1">
-        <v>40.13</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="BX40" s="1">
         <v>7.95</v>
       </c>
       <c r="BY40" s="1">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="BZ40" s="1">
         <v>6.85</v>
@@ -13252,13 +13214,13 @@
         <v>56.83</v>
       </c>
       <c r="CD40" s="1">
-        <v>38.02</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="CE40" s="1">
         <v>65.27</v>
       </c>
       <c r="CF40" s="1">
-        <v>37.45</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="CG40" s="1">
         <v>10.47</v>
@@ -13285,7 +13247,7 @@
         <v>45.63</v>
       </c>
       <c r="CO40" s="1">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="CP40" s="1">
         <v>0</v>
@@ -13315,7 +13277,7 @@
         <v>414.77</v>
       </c>
     </row>
-    <row r="41" spans="1:102">
+    <row r="41" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -13374,10 +13336,10 @@
         <v>192.6</v>
       </c>
       <c r="T41" s="1">
-        <v>80.56999999999999</v>
+        <v>80.569999999999993</v>
       </c>
       <c r="U41" s="1">
-        <v>139.36</v>
+        <v>139.36000000000001</v>
       </c>
       <c r="V41" s="1">
         <v>77.56</v>
@@ -13398,7 +13360,7 @@
         <v>364.38</v>
       </c>
       <c r="AB41" s="1">
-        <v>159.48</v>
+        <v>159.47999999999999</v>
       </c>
       <c r="AC41" s="1">
         <v>246.86</v>
@@ -13413,7 +13375,7 @@
         <v>159.41</v>
       </c>
       <c r="AG41" s="1">
-        <v>281.47</v>
+        <v>281.47000000000003</v>
       </c>
       <c r="AH41" s="1">
         <v>166.11</v>
@@ -13428,7 +13390,7 @@
         <v>108.26</v>
       </c>
       <c r="AL41" s="1">
-        <v>89.23999999999999</v>
+        <v>89.24</v>
       </c>
       <c r="AM41" s="1">
         <v>101.28</v>
@@ -13491,7 +13453,7 @@
         <v>99.94</v>
       </c>
       <c r="BG41" s="1">
-        <v>81.79000000000001</v>
+        <v>81.790000000000006</v>
       </c>
       <c r="BH41" s="1">
         <v>59.83</v>
@@ -13503,7 +13465,7 @@
         <v>10.91</v>
       </c>
       <c r="BK41" s="1">
-        <v>17.74</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="BL41" s="1">
         <v>62.69</v>
@@ -13521,10 +13483,10 @@
         <v>187.88</v>
       </c>
       <c r="BQ41" s="1">
-        <v>140.73</v>
+        <v>140.72999999999999</v>
       </c>
       <c r="BR41" s="1">
-        <v>66.45999999999999</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="BS41" s="1">
         <v>60.11</v>
@@ -13563,7 +13525,7 @@
         <v>45.27</v>
       </c>
       <c r="CE41" s="1">
-        <v>68.40000000000001</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="CF41" s="1">
         <v>45.85</v>
@@ -13623,7 +13585,7 @@
         <v>507.37</v>
       </c>
     </row>
-    <row r="42" spans="1:102">
+    <row r="42" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -13643,13 +13605,13 @@
         <v>160.99</v>
       </c>
       <c r="G42" s="1">
-        <v>72.54000000000001</v>
+        <v>72.540000000000006</v>
       </c>
       <c r="H42" s="1">
         <v>162.31</v>
       </c>
       <c r="I42" s="1">
-        <v>323.4</v>
+        <v>323.39999999999998</v>
       </c>
       <c r="J42" s="1">
         <v>215.62</v>
@@ -13697,7 +13659,7 @@
         <v>295.7</v>
       </c>
       <c r="Y42" s="1">
-        <v>162.05</v>
+        <v>162.05000000000001</v>
       </c>
       <c r="Z42" s="1">
         <v>27.36</v>
@@ -13712,10 +13674,10 @@
         <v>319.18</v>
       </c>
       <c r="AD42" s="1">
-        <v>586.8200000000001</v>
+        <v>586.82000000000005</v>
       </c>
       <c r="AE42" s="1">
-        <v>302.85</v>
+        <v>302.85000000000002</v>
       </c>
       <c r="AF42" s="1">
         <v>195.68</v>
@@ -13766,7 +13728,7 @@
         <v>240.72</v>
       </c>
       <c r="AV42" s="1">
-        <v>299.85</v>
+        <v>299.85000000000002</v>
       </c>
       <c r="AW42" s="1">
         <v>208.54</v>
@@ -13778,7 +13740,7 @@
         <v>271.25</v>
       </c>
       <c r="AZ42" s="1">
-        <v>140.61</v>
+        <v>140.61000000000001</v>
       </c>
       <c r="BA42" s="1">
         <v>217.03</v>
@@ -13862,10 +13824,10 @@
         <v>82.69</v>
       </c>
       <c r="CB42" s="1">
-        <v>138.58</v>
+        <v>138.58000000000001</v>
       </c>
       <c r="CC42" s="1">
-        <v>93.20999999999999</v>
+        <v>93.21</v>
       </c>
       <c r="CD42" s="1">
         <v>52.77</v>
@@ -13889,7 +13851,7 @@
         <v>13.39</v>
       </c>
       <c r="CK42" s="1">
-        <v>19.74</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="CL42" s="1">
         <v>17.16</v>
@@ -13931,7 +13893,7 @@
         <v>710.92</v>
       </c>
     </row>
-    <row r="43" spans="1:102">
+    <row r="43" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -13951,7 +13913,7 @@
         <v>177.54</v>
       </c>
       <c r="G43" s="1">
-        <v>79.09999999999999</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="H43" s="1">
         <v>196.35</v>
@@ -13975,7 +13937,7 @@
         <v>89.08</v>
       </c>
       <c r="O43" s="1">
-        <v>98.95999999999999</v>
+        <v>98.96</v>
       </c>
       <c r="P43" s="1">
         <v>104.65</v>
@@ -13987,7 +13949,7 @@
         <v>545.1</v>
       </c>
       <c r="S43" s="1">
-        <v>316.9</v>
+        <v>316.89999999999998</v>
       </c>
       <c r="T43" s="1">
         <v>80.53</v>
@@ -13999,7 +13961,7 @@
         <v>130.1</v>
       </c>
       <c r="W43" s="1">
-        <v>93.90000000000001</v>
+        <v>93.9</v>
       </c>
       <c r="X43" s="1">
         <v>345.5</v>
@@ -14020,7 +13982,7 @@
         <v>324.18</v>
       </c>
       <c r="AD43" s="1">
-        <v>657.0599999999999</v>
+        <v>657.06</v>
       </c>
       <c r="AE43" s="1">
         <v>340.61</v>
@@ -14044,7 +14006,7 @@
         <v>163.01</v>
       </c>
       <c r="AL43" s="1">
-        <v>135.77</v>
+        <v>135.77000000000001</v>
       </c>
       <c r="AM43" s="1">
         <v>163.82</v>
@@ -14056,7 +14018,7 @@
         <v>133.19</v>
       </c>
       <c r="AP43" s="1">
-        <v>131.23</v>
+        <v>131.22999999999999</v>
       </c>
       <c r="AQ43" s="1">
         <v>112.04</v>
@@ -14083,7 +14045,7 @@
         <v>239.07</v>
       </c>
       <c r="AY43" s="1">
-        <v>300.46</v>
+        <v>300.45999999999998</v>
       </c>
       <c r="AZ43" s="1">
         <v>177.55</v>
@@ -14104,7 +14066,7 @@
         <v>475.53</v>
       </c>
       <c r="BF43" s="1">
-        <v>149.98</v>
+        <v>149.97999999999999</v>
       </c>
       <c r="BG43" s="1">
         <v>109.97</v>
@@ -14122,7 +14084,7 @@
         <v>30.39</v>
       </c>
       <c r="BL43" s="1">
-        <v>81.98999999999999</v>
+        <v>81.99</v>
       </c>
       <c r="BM43" s="1">
         <v>135.84</v>
@@ -14131,7 +14093,7 @@
         <v>85.92</v>
       </c>
       <c r="BO43" s="1">
-        <v>263.15</v>
+        <v>263.14999999999998</v>
       </c>
       <c r="BP43" s="1">
         <v>263.44</v>
@@ -14143,7 +14105,7 @@
         <v>92.88</v>
       </c>
       <c r="BS43" s="1">
-        <v>86.73999999999999</v>
+        <v>86.74</v>
       </c>
       <c r="BT43" s="1">
         <v>56.22</v>
@@ -14158,7 +14120,7 @@
         <v>105.98</v>
       </c>
       <c r="BX43" s="1">
-        <v>10.04</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="BY43" s="1">
         <v>2.84</v>
@@ -14179,10 +14141,10 @@
         <v>59.01</v>
       </c>
       <c r="CE43" s="1">
-        <v>91.79000000000001</v>
+        <v>91.79</v>
       </c>
       <c r="CF43" s="1">
-        <v>66.04000000000001</v>
+        <v>66.040000000000006</v>
       </c>
       <c r="CG43" s="1">
         <v>15.73</v>
@@ -14191,7 +14153,7 @@
         <v>25.29</v>
       </c>
       <c r="CI43" s="1">
-        <v>19.35</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="CJ43" s="1">
         <v>14.8</v>
@@ -14203,7 +14165,7 @@
         <v>20.02</v>
       </c>
       <c r="CM43" s="1">
-        <v>78.01000000000001</v>
+        <v>78.010000000000005</v>
       </c>
       <c r="CN43" s="1">
         <v>73.83</v>
@@ -14239,7 +14201,7 @@
         <v>793.58</v>
       </c>
     </row>
-    <row r="44" spans="1:102">
+    <row r="44" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -14277,7 +14239,7 @@
         <v>210.07</v>
       </c>
       <c r="M44" s="1">
-        <v>138.39</v>
+        <v>138.38999999999999</v>
       </c>
       <c r="N44" s="1">
         <v>112.57</v>
@@ -14292,7 +14254,7 @@
         <v>168.6</v>
       </c>
       <c r="R44" s="1">
-        <v>540.8</v>
+        <v>540.79999999999995</v>
       </c>
       <c r="S44" s="1">
         <v>353.3</v>
@@ -14307,7 +14269,7 @@
         <v>118.14</v>
       </c>
       <c r="W44" s="1">
-        <v>160.3</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="X44" s="1">
         <v>362.7</v>
@@ -14340,7 +14302,7 @@
         <v>408.18</v>
       </c>
       <c r="AH44" s="1">
-        <v>271.47</v>
+        <v>271.47000000000003</v>
       </c>
       <c r="AI44" s="1">
         <v>246.1</v>
@@ -14385,7 +14347,7 @@
         <v>331.85</v>
       </c>
       <c r="AW44" s="1">
-        <v>277.03</v>
+        <v>277.02999999999997</v>
       </c>
       <c r="AX44" s="1">
         <v>289.45</v>
@@ -14397,7 +14359,7 @@
         <v>221.54</v>
       </c>
       <c r="BA44" s="1">
-        <v>279.09</v>
+        <v>279.08999999999997</v>
       </c>
       <c r="BB44" s="1">
         <v>215.37</v>
@@ -14409,7 +14371,7 @@
         <v>615.86</v>
       </c>
       <c r="BE44" s="1">
-        <v>558.58</v>
+        <v>558.58000000000004</v>
       </c>
       <c r="BF44" s="1">
         <v>176.77</v>
@@ -14424,10 +14386,10 @@
         <v>45.71</v>
       </c>
       <c r="BJ44" s="1">
-        <v>20.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="BK44" s="1">
-        <v>36.52</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="BL44" s="1">
         <v>100.4</v>
@@ -14439,13 +14401,13 @@
         <v>91.73</v>
       </c>
       <c r="BO44" s="1">
-        <v>321.41</v>
+        <v>321.41000000000003</v>
       </c>
       <c r="BP44" s="1">
         <v>312.64</v>
       </c>
       <c r="BQ44" s="1">
-        <v>256.9</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="BR44" s="1">
         <v>100.1</v>
@@ -14454,13 +14416,13 @@
         <v>92.83</v>
       </c>
       <c r="BT44" s="1">
-        <v>67.20999999999999</v>
+        <v>67.209999999999994</v>
       </c>
       <c r="BU44" s="1">
         <v>168.13</v>
       </c>
       <c r="BV44" s="1">
-        <v>157.8</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="BW44" s="1">
         <v>125.74</v>
@@ -14472,7 +14434,7 @@
         <v>3.57</v>
       </c>
       <c r="BZ44" s="1">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="CA44" s="1">
         <v>105.56</v>
@@ -14493,7 +14455,7 @@
         <v>80.41</v>
       </c>
       <c r="CG44" s="1">
-        <v>17.67</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="CH44" s="1">
         <v>26.89</v>
@@ -14514,7 +14476,7 @@
         <v>104.09</v>
       </c>
       <c r="CN44" s="1">
-        <v>83.18000000000001</v>
+        <v>83.18</v>
       </c>
       <c r="CO44" s="1">
         <v>74.17</v>
@@ -14538,7 +14500,7 @@
         <v>411.45</v>
       </c>
       <c r="CV44" s="1">
-        <v>644.45</v>
+        <v>644.45000000000005</v>
       </c>
       <c r="CW44" s="1">
         <v>1606.37</v>
@@ -14547,7 +14509,7 @@
         <v>882.03</v>
       </c>
     </row>
-    <row r="45" spans="1:102">
+    <row r="45" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -14555,10 +14517,10 @@
         <v>45.52</v>
       </c>
       <c r="C45" s="1">
-        <v>291.53</v>
+        <v>291.52999999999997</v>
       </c>
       <c r="D45" s="1">
-        <v>261.84</v>
+        <v>261.83999999999997</v>
       </c>
       <c r="E45" s="1">
         <v>29.26</v>
@@ -14612,10 +14574,10 @@
         <v>203.02</v>
       </c>
       <c r="V45" s="1">
-        <v>139.98</v>
+        <v>139.97999999999999</v>
       </c>
       <c r="W45" s="1">
-        <v>148.3</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="X45" s="1">
         <v>413.3</v>
@@ -14672,10 +14634,10 @@
         <v>183.27</v>
       </c>
       <c r="AP45" s="1">
-        <v>154.77</v>
+        <v>154.77000000000001</v>
       </c>
       <c r="AQ45" s="1">
-        <v>141.33</v>
+        <v>141.33000000000001</v>
       </c>
       <c r="AR45" s="1">
         <v>521.85</v>
@@ -14693,7 +14655,7 @@
         <v>388.09</v>
       </c>
       <c r="AW45" s="1">
-        <v>323.03</v>
+        <v>323.02999999999997</v>
       </c>
       <c r="AX45" s="1">
         <v>279.3</v>
@@ -14702,7 +14664,7 @@
         <v>359.86</v>
       </c>
       <c r="AZ45" s="1">
-        <v>274.22</v>
+        <v>274.22000000000003</v>
       </c>
       <c r="BA45" s="1">
         <v>301.02</v>
@@ -14723,7 +14685,7 @@
         <v>195.17</v>
       </c>
       <c r="BG45" s="1">
-        <v>141.02</v>
+        <v>141.02000000000001</v>
       </c>
       <c r="BH45" s="1">
         <v>182.4</v>
@@ -14762,7 +14724,7 @@
         <v>101.54</v>
       </c>
       <c r="BT45" s="1">
-        <v>78.65000000000001</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="BU45" s="1">
         <v>169.48</v>
@@ -14789,7 +14751,7 @@
         <v>197.54</v>
       </c>
       <c r="CC45" s="1">
-        <v>153.95</v>
+        <v>153.94999999999999</v>
       </c>
       <c r="CD45" s="1">
         <v>66.55</v>
@@ -14798,7 +14760,7 @@
         <v>111.91</v>
       </c>
       <c r="CF45" s="1">
-        <v>92.93000000000001</v>
+        <v>92.93</v>
       </c>
       <c r="CG45" s="1">
         <v>17.96</v>
@@ -14810,7 +14772,7 @@
         <v>27.3</v>
       </c>
       <c r="CJ45" s="1">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="CK45" s="1">
         <v>27.77</v>
@@ -14846,16 +14808,16 @@
         <v>0</v>
       </c>
       <c r="CV45" s="1">
-        <v>624.4299999999999</v>
+        <v>624.42999999999995</v>
       </c>
       <c r="CW45" s="1">
         <v>1838.67</v>
       </c>
       <c r="CX45" s="1">
-        <v>1121.39</v>
+        <v>1121.3900000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:102">
+    <row r="46" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -14890,7 +14852,7 @@
         <v>82.94</v>
       </c>
       <c r="L46" s="1">
-        <v>270.28</v>
+        <v>270.27999999999997</v>
       </c>
       <c r="M46" s="1">
         <v>197.9</v>
@@ -14929,10 +14891,10 @@
         <v>493.1</v>
       </c>
       <c r="Y46" s="1">
-        <v>299.6</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="Z46" s="1">
-        <v>34.16</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="AA46" s="1">
         <v>677.39</v>
@@ -14947,13 +14909,13 @@
         <v>1119.26</v>
       </c>
       <c r="AE46" s="1">
-        <v>622.9400000000001</v>
+        <v>622.94000000000005</v>
       </c>
       <c r="AF46" s="1">
         <v>262.67</v>
       </c>
       <c r="AG46" s="1">
-        <v>653.4299999999999</v>
+        <v>653.42999999999995</v>
       </c>
       <c r="AH46" s="1">
         <v>459.6</v>
@@ -14971,10 +14933,10 @@
         <v>194.87</v>
       </c>
       <c r="AM46" s="1">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="AN46" s="1">
-        <v>298.21</v>
+        <v>298.20999999999998</v>
       </c>
       <c r="AO46" s="1">
         <v>200.81</v>
@@ -15013,10 +14975,10 @@
         <v>340.78</v>
       </c>
       <c r="BA46" s="1">
-        <v>323.91</v>
+        <v>323.91000000000003</v>
       </c>
       <c r="BB46" s="1">
-        <v>325.9</v>
+        <v>325.89999999999998</v>
       </c>
       <c r="BC46" s="1">
         <v>465.83</v>
@@ -15040,7 +15002,7 @@
         <v>53.59</v>
       </c>
       <c r="BJ46" s="1">
-        <v>38.27</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="BK46" s="1">
         <v>93.06</v>
@@ -15052,7 +15014,7 @@
         <v>194.4</v>
       </c>
       <c r="BN46" s="1">
-        <v>149.64</v>
+        <v>149.63999999999999</v>
       </c>
       <c r="BO46" s="1">
         <v>372.04</v>
@@ -15070,7 +15032,7 @@
         <v>122.08</v>
       </c>
       <c r="BT46" s="1">
-        <v>96.65000000000001</v>
+        <v>96.65</v>
       </c>
       <c r="BU46" s="1">
         <v>186.8</v>
@@ -15109,7 +15071,7 @@
         <v>114.93</v>
       </c>
       <c r="CG46" s="1">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="CH46" s="1">
         <v>36.31</v>
@@ -15118,10 +15080,10 @@
         <v>31.31</v>
       </c>
       <c r="CJ46" s="1">
-        <v>18.31</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="CK46" s="1">
-        <v>34.05</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="CL46" s="1">
         <v>30.78</v>
@@ -15130,10 +15092,10 @@
         <v>114.5</v>
       </c>
       <c r="CN46" s="1">
-        <v>147.64</v>
+        <v>147.63999999999999</v>
       </c>
       <c r="CO46" s="1">
-        <v>140.17</v>
+        <v>140.16999999999999</v>
       </c>
       <c r="CP46" s="1">
         <v>0</v>
@@ -15163,7 +15125,7 @@
         <v>1485.31</v>
       </c>
     </row>
-    <row r="47" spans="1:102">
+    <row r="47" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>148</v>
       </c>
@@ -15180,7 +15142,7 @@
         <v>35.4</v>
       </c>
       <c r="F47" s="1">
-        <v>308.4</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="G47" s="1">
         <v>195.14</v>
@@ -15222,7 +15184,7 @@
         <v>710.76</v>
       </c>
       <c r="T47" s="1">
-        <v>156.05</v>
+        <v>156.05000000000001</v>
       </c>
       <c r="U47" s="1">
         <v>351.03</v>
@@ -15234,7 +15196,7 @@
         <v>198.4</v>
       </c>
       <c r="X47" s="1">
-        <v>649.7</v>
+        <v>649.70000000000005</v>
       </c>
       <c r="Y47" s="1">
         <v>350.2</v>
@@ -15258,7 +15220,7 @@
         <v>909.52</v>
       </c>
       <c r="AF47" s="1">
-        <v>315.96</v>
+        <v>315.95999999999998</v>
       </c>
       <c r="AG47" s="1">
         <v>983.96</v>
@@ -15288,7 +15250,7 @@
         <v>225.58</v>
       </c>
       <c r="AP47" s="1">
-        <v>282.46</v>
+        <v>282.45999999999998</v>
       </c>
       <c r="AQ47" s="1">
         <v>215</v>
@@ -15327,7 +15289,7 @@
         <v>390.98</v>
       </c>
       <c r="BC47" s="1">
-        <v>558.7</v>
+        <v>558.70000000000005</v>
       </c>
       <c r="BD47" s="1">
         <v>1704.88</v>
@@ -15339,13 +15301,13 @@
         <v>250.11</v>
       </c>
       <c r="BG47" s="1">
-        <v>321.1</v>
+        <v>321.10000000000002</v>
       </c>
       <c r="BH47" s="1">
         <v>300.49</v>
       </c>
       <c r="BI47" s="1">
-        <v>76.81999999999999</v>
+        <v>76.819999999999993</v>
       </c>
       <c r="BJ47" s="1">
         <v>66.08</v>
@@ -15408,7 +15370,7 @@
         <v>232.47</v>
       </c>
       <c r="CD47" s="1">
-        <v>87.43000000000001</v>
+        <v>87.43</v>
       </c>
       <c r="CE47" s="1">
         <v>159.96</v>
@@ -15423,7 +15385,7 @@
         <v>48.13</v>
       </c>
       <c r="CI47" s="1">
-        <v>39.34</v>
+        <v>39.340000000000003</v>
       </c>
       <c r="CJ47" s="1">
         <v>20.84</v>
@@ -15441,7 +15403,7 @@
         <v>205.07</v>
       </c>
       <c r="CO47" s="1">
-        <v>163.33</v>
+        <v>163.33000000000001</v>
       </c>
       <c r="CP47" s="1">
         <v>0</v>
@@ -15471,15 +15433,15 @@
         <v>2114.54</v>
       </c>
     </row>
-    <row r="48" spans="1:102">
+    <row r="48" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>149</v>
       </c>
       <c r="B48" s="1">
-        <v>66.79000000000001</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="C48" s="1">
-        <v>517.55</v>
+        <v>517.54999999999995</v>
       </c>
       <c r="D48" s="1">
         <v>560.97</v>
@@ -15497,7 +15459,7 @@
         <v>451.91</v>
       </c>
       <c r="I48" s="1">
-        <v>1053.12</v>
+        <v>1053.1199999999999</v>
       </c>
       <c r="J48" s="1">
         <v>682.46</v>
@@ -15530,7 +15492,7 @@
         <v>883.78</v>
       </c>
       <c r="T48" s="1">
-        <v>259.4</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="U48" s="1">
         <v>396.91</v>
@@ -15563,7 +15525,7 @@
         <v>2186.77</v>
       </c>
       <c r="AE48" s="1">
-        <v>1186.64</v>
+        <v>1186.6400000000001</v>
       </c>
       <c r="AF48" s="1">
         <v>438.65</v>
@@ -15578,7 +15540,7 @@
         <v>339.28</v>
       </c>
       <c r="AJ48" s="1">
-        <v>541.92</v>
+        <v>541.91999999999996</v>
       </c>
       <c r="AK48" s="1">
         <v>439.23</v>
@@ -15593,7 +15555,7 @@
         <v>560.52</v>
       </c>
       <c r="AO48" s="1">
-        <v>314.35</v>
+        <v>314.35000000000002</v>
       </c>
       <c r="AP48" s="1">
         <v>338.23</v>
@@ -15611,10 +15573,10 @@
         <v>1178.04</v>
       </c>
       <c r="AU48" s="1">
-        <v>546.6799999999999</v>
+        <v>546.67999999999995</v>
       </c>
       <c r="AV48" s="1">
-        <v>1058.89</v>
+        <v>1058.8900000000001</v>
       </c>
       <c r="AW48" s="1">
         <v>611.26</v>
@@ -15656,7 +15618,7 @@
         <v>106.12</v>
       </c>
       <c r="BJ48" s="1">
-        <v>83.31999999999999</v>
+        <v>83.32</v>
       </c>
       <c r="BK48" s="1">
         <v>142.54</v>
@@ -15668,7 +15630,7 @@
         <v>376.75</v>
       </c>
       <c r="BN48" s="1">
-        <v>260.66</v>
+        <v>260.66000000000003</v>
       </c>
       <c r="BO48" s="1">
         <v>597.37</v>
@@ -15695,7 +15657,7 @@
         <v>428.68</v>
       </c>
       <c r="BW48" s="1">
-        <v>318.85</v>
+        <v>318.85000000000002</v>
       </c>
       <c r="BX48" s="1">
         <v>21.14</v>
@@ -15761,7 +15723,7 @@
         <v>0</v>
       </c>
       <c r="CS48" s="1">
-        <v>261.85</v>
+        <v>261.85000000000002</v>
       </c>
       <c r="CT48" s="1">
         <v>1529.27</v>
@@ -15779,7 +15741,7 @@
         <v>2833.96</v>
       </c>
     </row>
-    <row r="49" spans="1:102">
+    <row r="49" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -15787,7 +15749,7 @@
         <v>72.16</v>
       </c>
       <c r="C49" s="1">
-        <v>645.8099999999999</v>
+        <v>645.80999999999995</v>
       </c>
       <c r="D49" s="1">
         <v>789.72</v>
@@ -15796,7 +15758,7 @@
         <v>60.8</v>
       </c>
       <c r="F49" s="1">
-        <v>518.55</v>
+        <v>518.54999999999995</v>
       </c>
       <c r="G49" s="1">
         <v>352.62</v>
@@ -15823,10 +15785,10 @@
         <v>260.18</v>
       </c>
       <c r="O49" s="1">
-        <v>308.78</v>
+        <v>308.77999999999997</v>
       </c>
       <c r="P49" s="1">
-        <v>288.1</v>
+        <v>288.10000000000002</v>
       </c>
       <c r="Q49" s="1">
         <v>392.17</v>
@@ -15850,7 +15812,7 @@
         <v>371.2</v>
       </c>
       <c r="X49" s="1">
-        <v>1048.6</v>
+        <v>1048.5999999999999</v>
       </c>
       <c r="Y49" s="1">
         <v>571.6</v>
@@ -15889,7 +15851,7 @@
         <v>660.09</v>
       </c>
       <c r="AK49" s="1">
-        <v>566.45</v>
+        <v>566.45000000000005</v>
       </c>
       <c r="AL49" s="1">
         <v>464.82</v>
@@ -15913,7 +15875,7 @@
         <v>1010.13</v>
       </c>
       <c r="AS49" s="1">
-        <v>2355.78</v>
+        <v>2355.7800000000002</v>
       </c>
       <c r="AT49" s="1">
         <v>1587.44</v>
@@ -15931,10 +15893,10 @@
         <v>619.77</v>
       </c>
       <c r="AY49" s="1">
-        <v>780.1799999999999</v>
+        <v>780.18</v>
       </c>
       <c r="AZ49" s="1">
-        <v>709.4299999999999</v>
+        <v>709.43</v>
       </c>
       <c r="BA49" s="1">
         <v>685.3</v>
@@ -16033,7 +15995,7 @@
         <v>190.28</v>
       </c>
       <c r="CG49" s="1">
-        <v>39.62</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="CH49" s="1">
         <v>64.58</v>
@@ -16042,19 +16004,19 @@
         <v>63.6</v>
       </c>
       <c r="CJ49" s="1">
-        <v>35.41</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="CK49" s="1">
         <v>74.67</v>
       </c>
       <c r="CL49" s="1">
-        <v>65.09999999999999</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="CM49" s="1">
         <v>240.71</v>
       </c>
       <c r="CN49" s="1">
-        <v>283.97</v>
+        <v>283.97000000000003</v>
       </c>
       <c r="CO49" s="1">
         <v>290.17</v>
@@ -16087,7 +16049,7 @@
         <v>3747.02</v>
       </c>
     </row>
-    <row r="50" spans="1:102">
+    <row r="50" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -16110,7 +16072,7 @@
         <v>445.16</v>
       </c>
       <c r="H50" s="1">
-        <v>700.9400000000001</v>
+        <v>700.94</v>
       </c>
       <c r="I50" s="1">
         <v>1664.61</v>
@@ -16149,7 +16111,7 @@
         <v>376.01</v>
       </c>
       <c r="U50" s="1">
-        <v>537.05</v>
+        <v>537.04999999999995</v>
       </c>
       <c r="V50" s="1">
         <v>433.73</v>
@@ -16170,10 +16132,10 @@
         <v>1596.72</v>
       </c>
       <c r="AB50" s="1">
-        <v>1292.11</v>
+        <v>1292.1099999999999</v>
       </c>
       <c r="AC50" s="1">
-        <v>989.1799999999999</v>
+        <v>989.18</v>
       </c>
       <c r="AD50" s="1">
         <v>3074.12</v>
@@ -16182,7 +16144,7 @@
         <v>1940.91</v>
       </c>
       <c r="AF50" s="1">
-        <v>594.9299999999999</v>
+        <v>594.92999999999995</v>
       </c>
       <c r="AG50" s="1">
         <v>2232.17</v>
@@ -16191,10 +16153,10 @@
         <v>1361.43</v>
       </c>
       <c r="AI50" s="1">
-        <v>668.4400000000001</v>
+        <v>668.44</v>
       </c>
       <c r="AJ50" s="1">
-        <v>742.0700000000001</v>
+        <v>742.07</v>
       </c>
       <c r="AK50" s="1">
         <v>682.79</v>
@@ -16203,7 +16165,7 @@
         <v>537.38</v>
       </c>
       <c r="AM50" s="1">
-        <v>1026.64</v>
+        <v>1026.6400000000001</v>
       </c>
       <c r="AN50" s="1">
         <v>920.23</v>
@@ -16239,7 +16201,7 @@
         <v>716.34</v>
       </c>
       <c r="AY50" s="1">
-        <v>923.6799999999999</v>
+        <v>923.68</v>
       </c>
       <c r="AZ50" s="1">
         <v>859.75</v>
@@ -16257,7 +16219,7 @@
         <v>3307.51</v>
       </c>
       <c r="BE50" s="1">
-        <v>2592.22</v>
+        <v>2592.2199999999998</v>
       </c>
       <c r="BF50" s="1">
         <v>534.88</v>
@@ -16308,7 +16270,7 @@
         <v>360.48</v>
       </c>
       <c r="BV50" s="1">
-        <v>669.0599999999999</v>
+        <v>669.06</v>
       </c>
       <c r="BW50" s="1">
         <v>488.15</v>
@@ -16341,19 +16303,19 @@
         <v>222.42</v>
       </c>
       <c r="CG50" s="1">
-        <v>40.41</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="CH50" s="1">
         <v>70</v>
       </c>
       <c r="CI50" s="1">
-        <v>73.76000000000001</v>
+        <v>73.760000000000005</v>
       </c>
       <c r="CJ50" s="1">
         <v>43.28</v>
       </c>
       <c r="CK50" s="1">
-        <v>80.54000000000001</v>
+        <v>80.540000000000006</v>
       </c>
       <c r="CL50" s="1">
         <v>79.09</v>
@@ -16395,12 +16357,12 @@
         <v>4594.45</v>
       </c>
     </row>
-    <row r="51" spans="1:102">
+    <row r="51" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>152</v>
       </c>
       <c r="B51" s="1">
-        <v>77.18000000000001</v>
+        <v>77.180000000000007</v>
       </c>
       <c r="C51" s="1">
         <v>781.85</v>
@@ -16424,16 +16386,16 @@
         <v>1934.38</v>
       </c>
       <c r="J51" s="1">
-        <v>1257.64</v>
+        <v>1257.6400000000001</v>
       </c>
       <c r="K51" s="1">
         <v>191.84</v>
       </c>
       <c r="L51" s="1">
-        <v>707.5700000000001</v>
+        <v>707.57</v>
       </c>
       <c r="M51" s="1">
-        <v>576.58</v>
+        <v>576.58000000000004</v>
       </c>
       <c r="N51" s="1">
         <v>322.52</v>
@@ -16487,13 +16449,13 @@
         <v>3411.86</v>
       </c>
       <c r="AE51" s="1">
-        <v>2232.68</v>
+        <v>2232.6799999999998</v>
       </c>
       <c r="AF51" s="1">
         <v>618.9</v>
       </c>
       <c r="AG51" s="1">
-        <v>2554.57</v>
+        <v>2554.5700000000002</v>
       </c>
       <c r="AH51" s="1">
         <v>1512.64</v>
@@ -16532,7 +16494,7 @@
         <v>3147.37</v>
       </c>
       <c r="AT51" s="1">
-        <v>2194.7</v>
+        <v>2194.6999999999998</v>
       </c>
       <c r="AU51" s="1">
         <v>1008.55</v>
@@ -16547,7 +16509,7 @@
         <v>767.92</v>
       </c>
       <c r="AY51" s="1">
-        <v>1071.86</v>
+        <v>1071.8599999999999</v>
       </c>
       <c r="AZ51" s="1">
         <v>1016.69</v>
@@ -16559,7 +16521,7 @@
         <v>951.73</v>
       </c>
       <c r="BC51" s="1">
-        <v>978.3200000000001</v>
+        <v>978.32</v>
       </c>
       <c r="BD51" s="1">
         <v>3704.39</v>
@@ -16571,13 +16533,13 @@
         <v>582.74</v>
       </c>
       <c r="BG51" s="1">
-        <v>614.0700000000001</v>
+        <v>614.07000000000005</v>
       </c>
       <c r="BH51" s="1">
-        <v>620.4400000000001</v>
+        <v>620.44000000000005</v>
       </c>
       <c r="BI51" s="1">
-        <v>148.52</v>
+        <v>148.52000000000001</v>
       </c>
       <c r="BJ51" s="1">
         <v>83.13</v>
@@ -16586,7 +16548,7 @@
         <v>179.51</v>
       </c>
       <c r="BL51" s="1">
-        <v>307.21</v>
+        <v>307.20999999999998</v>
       </c>
       <c r="BM51" s="1">
         <v>650.4</v>
@@ -16601,10 +16563,10 @@
         <v>1265.32</v>
       </c>
       <c r="BQ51" s="1">
-        <v>1095.87</v>
+        <v>1095.8699999999999</v>
       </c>
       <c r="BR51" s="1">
-        <v>271.96</v>
+        <v>271.95999999999998</v>
       </c>
       <c r="BS51" s="1">
         <v>288.99</v>
@@ -16616,10 +16578,10 @@
         <v>387.02</v>
       </c>
       <c r="BV51" s="1">
-        <v>743.8200000000001</v>
+        <v>743.82</v>
       </c>
       <c r="BW51" s="1">
-        <v>545.33</v>
+        <v>545.33000000000004</v>
       </c>
       <c r="BX51" s="1">
         <v>29.23</v>
@@ -16637,7 +16599,7 @@
         <v>567.25</v>
       </c>
       <c r="CC51" s="1">
-        <v>540.9299999999999</v>
+        <v>540.92999999999995</v>
       </c>
       <c r="CD51" s="1">
         <v>190.21</v>
@@ -16688,7 +16650,7 @@
         <v>391.1</v>
       </c>
       <c r="CT51" s="1">
-        <v>2588.28</v>
+        <v>2588.2800000000002</v>
       </c>
       <c r="CU51" s="1">
         <v>2243.04</v>
@@ -16703,7 +16665,7 @@
         <v>5338.07</v>
       </c>
     </row>
-    <row r="52" spans="1:102">
+    <row r="52" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -16711,7 +16673,7 @@
         <v>77.86</v>
       </c>
       <c r="C52" s="1">
-        <v>840.5700000000001</v>
+        <v>840.57</v>
       </c>
       <c r="D52" s="1">
         <v>1458.75</v>
@@ -16741,7 +16703,7 @@
         <v>761.25</v>
       </c>
       <c r="M52" s="1">
-        <v>642.58</v>
+        <v>642.58000000000004</v>
       </c>
       <c r="N52" s="1">
         <v>341.62</v>
@@ -16789,7 +16751,7 @@
         <v>1855.36</v>
       </c>
       <c r="AC52" s="1">
-        <v>1047.16</v>
+        <v>1047.1600000000001</v>
       </c>
       <c r="AD52" s="1">
         <v>3640.1</v>
@@ -16798,7 +16760,7 @@
         <v>2512.69</v>
       </c>
       <c r="AF52" s="1">
-        <v>609.3</v>
+        <v>609.29999999999995</v>
       </c>
       <c r="AG52" s="1">
         <v>2766.94</v>
@@ -16840,10 +16802,10 @@
         <v>3408.06</v>
       </c>
       <c r="AT52" s="1">
-        <v>2397.49</v>
+        <v>2397.4899999999998</v>
       </c>
       <c r="AU52" s="1">
-        <v>1071.39</v>
+        <v>1071.3900000000001</v>
       </c>
       <c r="AV52" s="1">
         <v>1937.83</v>
@@ -16861,10 +16823,10 @@
         <v>1136.72</v>
       </c>
       <c r="BA52" s="1">
-        <v>828.3099999999999</v>
+        <v>828.31</v>
       </c>
       <c r="BB52" s="1">
-        <v>1074.14</v>
+        <v>1074.1400000000001</v>
       </c>
       <c r="BC52" s="1">
         <v>994.55</v>
@@ -16876,16 +16838,16 @@
         <v>3469.21</v>
       </c>
       <c r="BF52" s="1">
-        <v>586.7</v>
+        <v>586.70000000000005</v>
       </c>
       <c r="BG52" s="1">
         <v>667.29</v>
       </c>
       <c r="BH52" s="1">
-        <v>657.3099999999999</v>
+        <v>657.31</v>
       </c>
       <c r="BI52" s="1">
-        <v>156.05</v>
+        <v>156.05000000000001</v>
       </c>
       <c r="BJ52" s="1">
         <v>91.41</v>
@@ -16909,13 +16871,13 @@
         <v>1324.01</v>
       </c>
       <c r="BQ52" s="1">
-        <v>1237.84</v>
+        <v>1237.8399999999999</v>
       </c>
       <c r="BR52" s="1">
-        <v>265.04</v>
+        <v>265.04000000000002</v>
       </c>
       <c r="BS52" s="1">
-        <v>319.4</v>
+        <v>319.39999999999998</v>
       </c>
       <c r="BT52" s="1">
         <v>273.95</v>
@@ -16942,7 +16904,7 @@
         <v>266.92</v>
       </c>
       <c r="CB52" s="1">
-        <v>607.8200000000001</v>
+        <v>607.82000000000005</v>
       </c>
       <c r="CC52" s="1">
         <v>583.66</v>
@@ -16963,7 +16925,7 @@
         <v>85.44</v>
       </c>
       <c r="CI52" s="1">
-        <v>92.54000000000001</v>
+        <v>92.54</v>
       </c>
       <c r="CJ52" s="1">
         <v>48.75</v>
@@ -17005,18 +16967,18 @@
         <v>1730.3</v>
       </c>
       <c r="CW52" s="1">
-        <v>8278.940000000001</v>
+        <v>8278.94</v>
       </c>
       <c r="CX52" s="1">
         <v>6044.44</v>
       </c>
     </row>
-    <row r="53" spans="1:102">
+    <row r="53" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>154</v>
       </c>
       <c r="B53" s="1">
-        <v>78.34999999999999</v>
+        <v>78.349999999999994</v>
       </c>
       <c r="C53" s="1">
         <v>907.34</v>
@@ -17058,10 +17020,10 @@
         <v>510.47</v>
       </c>
       <c r="P53" s="1">
-        <v>525.9299999999999</v>
+        <v>525.92999999999995</v>
       </c>
       <c r="Q53" s="1">
-        <v>520.8</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="R53" s="1">
         <v>2001.48</v>
@@ -17088,7 +17050,7 @@
         <v>932.4</v>
       </c>
       <c r="Z53" s="1">
-        <v>74.48999999999999</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="AA53" s="1">
         <v>1984.64</v>
@@ -17097,7 +17059,7 @@
         <v>2129.6</v>
       </c>
       <c r="AC53" s="1">
-        <v>1037.37</v>
+        <v>1037.3699999999999</v>
       </c>
       <c r="AD53" s="1">
         <v>3920.15</v>
@@ -17106,7 +17068,7 @@
         <v>2740.3</v>
       </c>
       <c r="AF53" s="1">
-        <v>606.3099999999999</v>
+        <v>606.30999999999995</v>
       </c>
       <c r="AG53" s="1">
         <v>2974.74</v>
@@ -17118,7 +17080,7 @@
         <v>746.72</v>
       </c>
       <c r="AJ53" s="1">
-        <v>974.3200000000001</v>
+        <v>974.32</v>
       </c>
       <c r="AK53" s="1">
         <v>991.3</v>
@@ -17136,10 +17098,10 @@
         <v>464.4</v>
       </c>
       <c r="AP53" s="1">
-        <v>648.8200000000001</v>
+        <v>648.82000000000005</v>
       </c>
       <c r="AQ53" s="1">
-        <v>740.4299999999999</v>
+        <v>740.43</v>
       </c>
       <c r="AR53" s="1">
         <v>1221</v>
@@ -17151,7 +17113,7 @@
         <v>2628.52</v>
       </c>
       <c r="AU53" s="1">
-        <v>1123.14</v>
+        <v>1123.1400000000001</v>
       </c>
       <c r="AV53" s="1">
         <v>1981.07</v>
@@ -17166,7 +17128,7 @@
         <v>1314.44</v>
       </c>
       <c r="AZ53" s="1">
-        <v>1260.86</v>
+        <v>1260.8599999999999</v>
       </c>
       <c r="BA53" s="1">
         <v>778.25</v>
@@ -17202,10 +17164,10 @@
         <v>208.04</v>
       </c>
       <c r="BL53" s="1">
-        <v>286.16</v>
+        <v>286.16000000000003</v>
       </c>
       <c r="BM53" s="1">
-        <v>697.8099999999999</v>
+        <v>697.81</v>
       </c>
       <c r="BN53" s="1">
         <v>679.23</v>
@@ -17226,7 +17188,7 @@
         <v>350.41</v>
       </c>
       <c r="BT53" s="1">
-        <v>319.34</v>
+        <v>319.33999999999997</v>
       </c>
       <c r="BU53" s="1">
         <v>406.87</v>
@@ -17250,7 +17212,7 @@
         <v>254.57</v>
       </c>
       <c r="CB53" s="1">
-        <v>681.4299999999999</v>
+        <v>681.43</v>
       </c>
       <c r="CC53" s="1">
         <v>656.64</v>
@@ -17313,13 +17275,13 @@
         <v>1718.17</v>
       </c>
       <c r="CW53" s="1">
-        <v>8879.530000000001</v>
+        <v>8879.5300000000007</v>
       </c>
       <c r="CX53" s="1">
         <v>6732.77</v>
       </c>
     </row>
-    <row r="54" spans="1:102">
+    <row r="54" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -17363,7 +17325,7 @@
         <v>350.8</v>
       </c>
       <c r="O54" s="1">
-        <v>582.5700000000001</v>
+        <v>582.57000000000005</v>
       </c>
       <c r="P54" s="1">
         <v>605.74</v>
@@ -17396,7 +17358,7 @@
         <v>1036.55</v>
       </c>
       <c r="Z54" s="1">
-        <v>76.68000000000001</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="AA54" s="1">
         <v>2207.63</v>
@@ -17405,10 +17367,10 @@
         <v>2486.86</v>
       </c>
       <c r="AC54" s="1">
-        <v>1048.34</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="AD54" s="1">
-        <v>4435.89</v>
+        <v>4435.8900000000003</v>
       </c>
       <c r="AE54" s="1">
         <v>3069.46</v>
@@ -17432,7 +17394,7 @@
         <v>1103.54</v>
       </c>
       <c r="AL54" s="1">
-        <v>640.5700000000001</v>
+        <v>640.57000000000005</v>
       </c>
       <c r="AM54" s="1">
         <v>1628.45</v>
@@ -17483,7 +17445,7 @@
         <v>1473.39</v>
       </c>
       <c r="BC54" s="1">
-        <v>986.3200000000001</v>
+        <v>986.32</v>
       </c>
       <c r="BD54" s="1">
         <v>4999.51</v>
@@ -17555,7 +17517,7 @@
         <v>54.37</v>
       </c>
       <c r="CA54" s="1">
-        <v>258.22</v>
+        <v>258.22000000000003</v>
       </c>
       <c r="CB54" s="1">
         <v>782.58</v>
@@ -17573,7 +17535,7 @@
         <v>437.13</v>
       </c>
       <c r="CG54" s="1">
-        <v>40.12</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="CH54" s="1">
         <v>108.83</v>
@@ -17594,10 +17556,10 @@
         <v>288.18</v>
       </c>
       <c r="CN54" s="1">
-        <v>537.58</v>
+        <v>537.58000000000004</v>
       </c>
       <c r="CO54" s="1">
-        <v>537.8</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="CP54" s="1">
         <v>0</v>
@@ -17627,7 +17589,7 @@
         <v>8912.66</v>
       </c>
     </row>
-    <row r="55" spans="1:102">
+    <row r="55" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -17635,7 +17597,7 @@
         <v>80.78</v>
       </c>
       <c r="C55" s="1">
-        <v>1142.35</v>
+        <v>1142.3499999999999</v>
       </c>
       <c r="D55" s="1">
         <v>2484.83</v>
@@ -17644,13 +17606,13 @@
         <v>78.73</v>
       </c>
       <c r="F55" s="1">
-        <v>959.0599999999999</v>
+        <v>959.06</v>
       </c>
       <c r="G55" s="1">
         <v>881.3</v>
       </c>
       <c r="H55" s="1">
-        <v>913.8200000000001</v>
+        <v>913.82</v>
       </c>
       <c r="I55" s="1">
         <v>2696.63</v>
@@ -17665,22 +17627,22 @@
         <v>956.01</v>
       </c>
       <c r="M55" s="1">
-        <v>902.4299999999999</v>
+        <v>902.43</v>
       </c>
       <c r="N55" s="1">
         <v>358.89</v>
       </c>
       <c r="O55" s="1">
-        <v>655.6799999999999</v>
+        <v>655.68</v>
       </c>
       <c r="P55" s="1">
         <v>699.24</v>
       </c>
       <c r="Q55" s="1">
-        <v>544.4400000000001</v>
+        <v>544.44000000000005</v>
       </c>
       <c r="R55" s="1">
-        <v>2440.55</v>
+        <v>2440.5500000000002</v>
       </c>
       <c r="S55" s="1">
         <v>2048.09</v>
@@ -17707,7 +17669,7 @@
         <v>78</v>
       </c>
       <c r="AA55" s="1">
-        <v>2403.18</v>
+        <v>2403.1799999999998</v>
       </c>
       <c r="AB55" s="1">
         <v>2728.94</v>
@@ -17734,7 +17696,7 @@
         <v>760.77</v>
       </c>
       <c r="AJ55" s="1">
-        <v>1254.88</v>
+        <v>1254.8800000000001</v>
       </c>
       <c r="AK55" s="1">
         <v>1231.06</v>
@@ -17755,7 +17717,7 @@
         <v>786.12</v>
       </c>
       <c r="AQ55" s="1">
-        <v>883.5599999999999</v>
+        <v>883.56</v>
       </c>
       <c r="AR55" s="1">
         <v>1359.49</v>
@@ -17767,10 +17729,10 @@
         <v>3279.53</v>
       </c>
       <c r="AU55" s="1">
-        <v>1234.34</v>
+        <v>1234.3399999999999</v>
       </c>
       <c r="AV55" s="1">
-        <v>2510.45</v>
+        <v>2510.4499999999998</v>
       </c>
       <c r="AW55" s="1">
         <v>1788.22</v>
@@ -17803,10 +17765,10 @@
         <v>576.34</v>
       </c>
       <c r="BG55" s="1">
-        <v>771.1799999999999</v>
+        <v>771.18</v>
       </c>
       <c r="BH55" s="1">
-        <v>931.8200000000001</v>
+        <v>931.82</v>
       </c>
       <c r="BI55" s="1">
         <v>196.78</v>
@@ -17818,7 +17780,7 @@
         <v>248.56</v>
       </c>
       <c r="BL55" s="1">
-        <v>294.9</v>
+        <v>294.89999999999998</v>
       </c>
       <c r="BM55" s="1">
         <v>841.95</v>
@@ -17836,7 +17798,7 @@
         <v>1739.81</v>
       </c>
       <c r="BR55" s="1">
-        <v>274.41</v>
+        <v>274.41000000000003</v>
       </c>
       <c r="BS55" s="1">
         <v>433.52</v>
@@ -17848,7 +17810,7 @@
         <v>444.42</v>
       </c>
       <c r="BV55" s="1">
-        <v>868.0599999999999</v>
+        <v>868.06</v>
       </c>
       <c r="BW55" s="1">
         <v>825.83</v>
@@ -17860,13 +17822,13 @@
         <v>31.97</v>
       </c>
       <c r="BZ55" s="1">
-        <v>69.65000000000001</v>
+        <v>69.650000000000006</v>
       </c>
       <c r="CA55" s="1">
         <v>263.63</v>
       </c>
       <c r="CB55" s="1">
-        <v>878.8200000000001</v>
+        <v>878.82</v>
       </c>
       <c r="CC55" s="1">
         <v>868.17</v>
@@ -17887,16 +17849,16 @@
         <v>125.09</v>
       </c>
       <c r="CI55" s="1">
-        <v>130.3</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="CJ55" s="1">
         <v>49.67</v>
       </c>
       <c r="CK55" s="1">
-        <v>135.89</v>
+        <v>135.88999999999999</v>
       </c>
       <c r="CL55" s="1">
-        <v>151.89</v>
+        <v>151.88999999999999</v>
       </c>
       <c r="CM55" s="1">
         <v>288.12</v>
@@ -17905,7 +17867,7 @@
         <v>573.91</v>
       </c>
       <c r="CO55" s="1">
-        <v>629.5700000000001</v>
+        <v>629.57000000000005</v>
       </c>
       <c r="CP55" s="1">
         <v>0</v>
@@ -17926,7 +17888,7 @@
         <v>4600.21</v>
       </c>
       <c r="CV55" s="1">
-        <v>2593.03</v>
+        <v>2593.0300000000002</v>
       </c>
       <c r="CW55" s="1">
         <v>12166.6</v>
@@ -17935,7 +17897,7 @@
         <v>10099.92</v>
       </c>
     </row>
-    <row r="56" spans="1:102">
+    <row r="56" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -17949,7 +17911,7 @@
         <v>2982.57</v>
       </c>
       <c r="E56" s="1">
-        <v>84.20999999999999</v>
+        <v>84.21</v>
       </c>
       <c r="F56" s="1">
         <v>1069.08</v>
@@ -17973,7 +17935,7 @@
         <v>1134.31</v>
       </c>
       <c r="M56" s="1">
-        <v>992.6900000000001</v>
+        <v>992.69</v>
       </c>
       <c r="N56" s="1">
         <v>374.69</v>
@@ -17985,7 +17947,7 @@
         <v>811.47</v>
       </c>
       <c r="Q56" s="1">
-        <v>590.2</v>
+        <v>590.20000000000005</v>
       </c>
       <c r="R56" s="1">
         <v>2609.85</v>
@@ -18012,7 +17974,7 @@
         <v>1319.4</v>
       </c>
       <c r="Z56" s="1">
-        <v>79.68000000000001</v>
+        <v>79.680000000000007</v>
       </c>
       <c r="AA56" s="1">
         <v>2622.45</v>
@@ -18069,13 +18031,13 @@
         <v>1390</v>
       </c>
       <c r="AS56" s="1">
-        <v>5184.98</v>
+        <v>5184.9799999999996</v>
       </c>
       <c r="AT56" s="1">
         <v>3700.52</v>
       </c>
       <c r="AU56" s="1">
-        <v>1288.36</v>
+        <v>1288.3599999999999</v>
       </c>
       <c r="AV56" s="1">
         <v>2768.75</v>
@@ -18114,7 +18076,7 @@
         <v>846.89</v>
       </c>
       <c r="BH56" s="1">
-        <v>1074.85</v>
+        <v>1074.8499999999999</v>
       </c>
       <c r="BI56" s="1">
         <v>222.89</v>
@@ -18123,7 +18085,7 @@
         <v>148.88</v>
       </c>
       <c r="BK56" s="1">
-        <v>270.96</v>
+        <v>270.95999999999998</v>
       </c>
       <c r="BL56" s="1">
         <v>317.87</v>
@@ -18144,7 +18106,7 @@
         <v>1943.68</v>
       </c>
       <c r="BR56" s="1">
-        <v>281.1</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="BS56" s="1">
         <v>481.96</v>
@@ -18171,7 +18133,7 @@
         <v>89.56</v>
       </c>
       <c r="CA56" s="1">
-        <v>282.21</v>
+        <v>282.20999999999998</v>
       </c>
       <c r="CB56" s="1">
         <v>1007.56</v>
@@ -18186,7 +18148,7 @@
         <v>501.69</v>
       </c>
       <c r="CF56" s="1">
-        <v>514.83</v>
+        <v>514.83000000000004</v>
       </c>
       <c r="CG56" s="1">
         <v>47.31</v>
@@ -18195,7 +18157,7 @@
         <v>144.51</v>
       </c>
       <c r="CI56" s="1">
-        <v>148.83</v>
+        <v>148.83000000000001</v>
       </c>
       <c r="CJ56" s="1">
         <v>52.95</v>
@@ -18228,7 +18190,7 @@
         <v>499.42</v>
       </c>
       <c r="CT56" s="1">
-        <v>5185.23</v>
+        <v>5185.2299999999996</v>
       </c>
       <c r="CU56" s="1">
         <v>5345.53</v>
@@ -18243,7 +18205,7 @@
         <v>11579.8</v>
       </c>
     </row>
-    <row r="57" spans="1:102">
+    <row r="57" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -18272,7 +18234,7 @@
         <v>3417.56</v>
       </c>
       <c r="J57" s="1">
-        <v>2439.68</v>
+        <v>2439.6799999999998</v>
       </c>
       <c r="K57" s="1">
         <v>215.19</v>
@@ -18281,7 +18243,7 @@
         <v>1463.38</v>
       </c>
       <c r="M57" s="1">
-        <v>1176.65</v>
+        <v>1176.6500000000001</v>
       </c>
       <c r="N57" s="1">
         <v>420.1</v>
@@ -18293,7 +18255,7 @@
         <v>1000.79</v>
       </c>
       <c r="Q57" s="1">
-        <v>615.8</v>
+        <v>615.79999999999995</v>
       </c>
       <c r="R57" s="1">
         <v>2898.89</v>
@@ -18305,7 +18267,7 @@
         <v>488.23</v>
       </c>
       <c r="U57" s="1">
-        <v>1098.37</v>
+        <v>1098.3699999999999</v>
       </c>
       <c r="V57" s="1">
         <v>1075.48</v>
@@ -18314,7 +18276,7 @@
         <v>504.8</v>
       </c>
       <c r="X57" s="1">
-        <v>2084.7</v>
+        <v>2084.6999999999998</v>
       </c>
       <c r="Y57" s="1">
         <v>1467.9</v>
@@ -18335,7 +18297,7 @@
         <v>6787.11</v>
       </c>
       <c r="AE57" s="1">
-        <v>4493.31</v>
+        <v>4493.3100000000004</v>
       </c>
       <c r="AF57" s="1">
         <v>717.85</v>
@@ -18356,10 +18318,10 @@
         <v>1638.42</v>
       </c>
       <c r="AL57" s="1">
-        <v>692.9400000000001</v>
+        <v>692.94</v>
       </c>
       <c r="AM57" s="1">
-        <v>2340.82</v>
+        <v>2340.8200000000002</v>
       </c>
       <c r="AN57" s="1">
         <v>1949.91</v>
@@ -18407,7 +18369,7 @@
         <v>1995.78</v>
       </c>
       <c r="BC57" s="1">
-        <v>1072.91</v>
+        <v>1072.9100000000001</v>
       </c>
       <c r="BD57" s="1">
         <v>7592.78</v>
@@ -18431,7 +18393,7 @@
         <v>175.82</v>
       </c>
       <c r="BK57" s="1">
-        <v>293.85</v>
+        <v>293.85000000000002</v>
       </c>
       <c r="BL57" s="1">
         <v>339.06</v>
@@ -18440,16 +18402,16 @@
         <v>1135.31</v>
       </c>
       <c r="BN57" s="1">
-        <v>1081.35</v>
+        <v>1081.3499999999999</v>
       </c>
       <c r="BO57" s="1">
-        <v>1128.61</v>
+        <v>1128.6099999999999</v>
       </c>
       <c r="BP57" s="1">
         <v>2014.8</v>
       </c>
       <c r="BQ57" s="1">
-        <v>2189.68</v>
+        <v>2189.6799999999998</v>
       </c>
       <c r="BR57" s="1">
         <v>298.69</v>
@@ -18464,28 +18426,28 @@
         <v>494.6</v>
       </c>
       <c r="BV57" s="1">
-        <v>1047.66</v>
+        <v>1047.6600000000001</v>
       </c>
       <c r="BW57" s="1">
         <v>1013.76</v>
       </c>
       <c r="BX57" s="1">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="BY57" s="1">
         <v>47.64</v>
       </c>
       <c r="BZ57" s="1">
-        <v>96.76000000000001</v>
+        <v>96.76</v>
       </c>
       <c r="CA57" s="1">
-        <v>302.66</v>
+        <v>302.66000000000003</v>
       </c>
       <c r="CB57" s="1">
         <v>1221.17</v>
       </c>
       <c r="CC57" s="1">
-        <v>1063.89</v>
+        <v>1063.8900000000001</v>
       </c>
       <c r="CD57" s="1">
         <v>237.91</v>
@@ -18551,7 +18513,7 @@
         <v>13454.45</v>
       </c>
     </row>
-    <row r="58" spans="1:102">
+    <row r="58" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>159</v>
       </c>
@@ -18577,7 +18539,7 @@
         <v>1370.43</v>
       </c>
       <c r="I58" s="1">
-        <v>4301.73</v>
+        <v>4301.7299999999996</v>
       </c>
       <c r="J58" s="1">
         <v>2805.47</v>
@@ -18592,7 +18554,7 @@
         <v>1375.67</v>
       </c>
       <c r="N58" s="1">
-        <v>522.8</v>
+        <v>522.79999999999995</v>
       </c>
       <c r="O58" s="1">
         <v>1248.27</v>
@@ -18601,7 +18563,7 @@
         <v>1270</v>
       </c>
       <c r="Q58" s="1">
-        <v>798.4299999999999</v>
+        <v>798.43</v>
       </c>
       <c r="R58" s="1">
         <v>3061.62</v>
@@ -18610,13 +18572,13 @@
         <v>2811.95</v>
       </c>
       <c r="T58" s="1">
-        <v>568.6900000000001</v>
+        <v>568.69000000000005</v>
       </c>
       <c r="U58" s="1">
         <v>1329.68</v>
       </c>
       <c r="V58" s="1">
-        <v>1223.64</v>
+        <v>1223.6400000000001</v>
       </c>
       <c r="W58" s="1">
         <v>605.79</v>
@@ -18685,7 +18647,7 @@
         <v>1778.45</v>
       </c>
       <c r="AS58" s="1">
-        <v>8478.690000000001</v>
+        <v>8478.69</v>
       </c>
       <c r="AT58" s="1">
         <v>4764.7</v>
@@ -18694,7 +18656,7 @@
         <v>1649.29</v>
       </c>
       <c r="AV58" s="1">
-        <v>4182.1</v>
+        <v>4182.1000000000004</v>
       </c>
       <c r="AW58" s="1">
         <v>2722.4</v>
@@ -18706,22 +18668,22 @@
         <v>2320.6</v>
       </c>
       <c r="AZ58" s="1">
-        <v>2292.55</v>
+        <v>2292.5500000000002</v>
       </c>
       <c r="BA58" s="1">
         <v>1022.45</v>
       </c>
       <c r="BB58" s="1">
-        <v>2428.95</v>
+        <v>2428.9499999999998</v>
       </c>
       <c r="BC58" s="1">
-        <v>1248.59</v>
+        <v>1248.5899999999999</v>
       </c>
       <c r="BD58" s="1">
         <v>9280.73</v>
       </c>
       <c r="BE58" s="1">
-        <v>8335.299999999999</v>
+        <v>8335.2999999999993</v>
       </c>
       <c r="BF58" s="1">
         <v>817.88</v>
@@ -18748,7 +18710,7 @@
         <v>1376.91</v>
       </c>
       <c r="BN58" s="1">
-        <v>1229.62</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="BO58" s="1">
         <v>1379.93</v>
@@ -18757,7 +18719,7 @@
         <v>2489.4</v>
       </c>
       <c r="BQ58" s="1">
-        <v>2510.3</v>
+        <v>2510.3000000000002</v>
       </c>
       <c r="BR58" s="1">
         <v>334.5</v>
@@ -18772,7 +18734,7 @@
         <v>607.75</v>
       </c>
       <c r="BV58" s="1">
-        <v>1281.63</v>
+        <v>1281.6300000000001</v>
       </c>
       <c r="BW58" s="1">
         <v>1192.53</v>
@@ -18793,10 +18755,10 @@
         <v>1553.1</v>
       </c>
       <c r="CC58" s="1">
-        <v>1234.6</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="CD58" s="1">
-        <v>286.78</v>
+        <v>286.77999999999997</v>
       </c>
       <c r="CE58" s="1">
         <v>713.3</v>
@@ -18853,18 +18815,18 @@
         <v>3215.63</v>
       </c>
       <c r="CW58" s="1">
-        <v>20579.19</v>
+        <v>20579.189999999999</v>
       </c>
       <c r="CX58" s="1">
         <v>15915.34</v>
       </c>
     </row>
-    <row r="59" spans="1:102">
+    <row r="59" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>160</v>
       </c>
       <c r="B59" s="1">
-        <v>88.68000000000001</v>
+        <v>88.68</v>
       </c>
       <c r="C59" s="1">
         <v>2026.51</v>
@@ -18876,7 +18838,7 @@
         <v>112.38</v>
       </c>
       <c r="F59" s="1">
-        <v>2135.07</v>
+        <v>2135.0700000000002</v>
       </c>
       <c r="G59" s="1">
         <v>1658.19</v>
@@ -18900,7 +18862,7 @@
         <v>1611.07</v>
       </c>
       <c r="N59" s="1">
-        <v>589.5599999999999</v>
+        <v>589.55999999999995</v>
       </c>
       <c r="O59" s="1">
         <v>1773.21</v>
@@ -18936,7 +18898,7 @@
         <v>1857.42</v>
       </c>
       <c r="Z59" s="1">
-        <v>90.26000000000001</v>
+        <v>90.26</v>
       </c>
       <c r="AA59" s="1">
         <v>4381.2</v>
@@ -18993,7 +18955,7 @@
         <v>1963.51</v>
       </c>
       <c r="AS59" s="1">
-        <v>10478.62</v>
+        <v>10478.620000000001</v>
       </c>
       <c r="AT59" s="1">
         <v>5924.74</v>
@@ -19008,7 +18970,7 @@
         <v>3181.27</v>
       </c>
       <c r="AX59" s="1">
-        <v>1082.13</v>
+        <v>1082.1300000000001</v>
       </c>
       <c r="AY59" s="1">
         <v>2852.12</v>
@@ -19017,7 +18979,7 @@
         <v>2655.94</v>
       </c>
       <c r="BA59" s="1">
-        <v>1100.65</v>
+        <v>1100.6500000000001</v>
       </c>
       <c r="BB59" s="1">
         <v>2882.88</v>
@@ -19074,10 +19036,10 @@
         <v>821.16</v>
       </c>
       <c r="BT59" s="1">
-        <v>815.3200000000001</v>
+        <v>815.32</v>
       </c>
       <c r="BU59" s="1">
-        <v>661.6900000000001</v>
+        <v>661.69</v>
       </c>
       <c r="BV59" s="1">
         <v>1426.42</v>
@@ -19107,7 +19069,7 @@
         <v>308.06</v>
       </c>
       <c r="CE59" s="1">
-        <v>838.5599999999999</v>
+        <v>838.56</v>
       </c>
       <c r="CF59" s="1">
         <v>787.36</v>
@@ -19122,7 +19084,7 @@
         <v>213.37</v>
       </c>
       <c r="CJ59" s="1">
-        <v>72.06999999999999</v>
+        <v>72.069999999999993</v>
       </c>
       <c r="CK59" s="1">
         <v>281.05</v>
@@ -19155,7 +19117,7 @@
         <v>9392.6</v>
       </c>
       <c r="CU59" s="1">
-        <v>8489.799999999999</v>
+        <v>8489.7999999999993</v>
       </c>
       <c r="CV59" s="1">
         <v>3411.1</v>
@@ -19167,7 +19129,7 @@
         <v>18971.45</v>
       </c>
     </row>
-    <row r="60" spans="1:102">
+    <row r="60" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -19175,7 +19137,7 @@
         <v>88.8</v>
       </c>
       <c r="C60" s="1">
-        <v>2191.43</v>
+        <v>2191.4299999999998</v>
       </c>
       <c r="D60" s="1">
         <v>5837.55</v>
@@ -19208,7 +19170,7 @@
         <v>1846.18</v>
       </c>
       <c r="N60" s="1">
-        <v>634.9400000000001</v>
+        <v>634.94000000000005</v>
       </c>
       <c r="O60" s="1">
         <v>2374.96</v>
@@ -19217,7 +19179,7 @@
         <v>1934.35</v>
       </c>
       <c r="Q60" s="1">
-        <v>939.4299999999999</v>
+        <v>939.43</v>
       </c>
       <c r="R60" s="1">
         <v>4566.83</v>
@@ -19292,7 +19254,7 @@
         <v>786.14</v>
       </c>
       <c r="AP60" s="1">
-        <v>2419.74</v>
+        <v>2419.7399999999998</v>
       </c>
       <c r="AQ60" s="1">
         <v>1614.65</v>
@@ -19316,7 +19278,7 @@
         <v>3721.44</v>
       </c>
       <c r="AX60" s="1">
-        <v>1140.41</v>
+        <v>1140.4100000000001</v>
       </c>
       <c r="AY60" s="1">
         <v>3365.08</v>
@@ -19397,7 +19359,7 @@
         <v>50.9</v>
       </c>
       <c r="BY60" s="1">
-        <v>80.09999999999999</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="BZ60" s="1">
         <v>159.76</v>
@@ -19430,22 +19392,22 @@
         <v>249.04</v>
       </c>
       <c r="CJ60" s="1">
-        <v>79.54000000000001</v>
+        <v>79.540000000000006</v>
       </c>
       <c r="CK60" s="1">
         <v>351.58</v>
       </c>
       <c r="CL60" s="1">
-        <v>294.78</v>
+        <v>294.77999999999997</v>
       </c>
       <c r="CM60" s="1">
-        <v>527.8</v>
+        <v>527.79999999999995</v>
       </c>
       <c r="CN60" s="1">
         <v>1459.3</v>
       </c>
       <c r="CO60" s="1">
-        <v>1058.16</v>
+        <v>1058.1600000000001</v>
       </c>
       <c r="CP60" s="1">
         <v>1463183</v>
@@ -19457,7 +19419,7 @@
         <v>1344210</v>
       </c>
       <c r="CS60" s="1">
-        <v>567.6900000000001</v>
+        <v>567.69000000000005</v>
       </c>
       <c r="CT60" s="1">
         <v>11301.58</v>
@@ -19475,7 +19437,7 @@
         <v>22200.6</v>
       </c>
     </row>
-    <row r="61" spans="1:102">
+    <row r="61" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -19507,13 +19469,13 @@
         <v>4600.72</v>
       </c>
       <c r="K61" s="1">
-        <v>311.97</v>
+        <v>311.97000000000003</v>
       </c>
       <c r="L61" s="1">
         <v>3454.49</v>
       </c>
       <c r="M61" s="1">
-        <v>2257.99</v>
+        <v>2257.9899999999998</v>
       </c>
       <c r="N61" s="1">
         <v>762.1</v>
@@ -19537,7 +19499,7 @@
         <v>783.8</v>
       </c>
       <c r="U61" s="1">
-        <v>2475.45</v>
+        <v>2475.4499999999998</v>
       </c>
       <c r="V61" s="1">
         <v>2025.44</v>
@@ -19627,7 +19589,7 @@
         <v>1378</v>
       </c>
       <c r="AY61" s="1">
-        <v>4143.06</v>
+        <v>4143.0600000000004</v>
       </c>
       <c r="AZ61" s="1">
         <v>3812.34</v>
@@ -19648,13 +19610,13 @@
         <v>14076.83</v>
       </c>
       <c r="BF61" s="1">
-        <v>1241.35</v>
+        <v>1241.3499999999999</v>
       </c>
       <c r="BG61" s="1">
         <v>2425.29</v>
       </c>
       <c r="BH61" s="1">
-        <v>2156.76</v>
+        <v>2156.7600000000002</v>
       </c>
       <c r="BI61" s="1">
         <v>361.07</v>
@@ -19669,7 +19631,7 @@
         <v>482.39</v>
       </c>
       <c r="BM61" s="1">
-        <v>2368.53</v>
+        <v>2368.5300000000002</v>
       </c>
       <c r="BN61" s="1">
         <v>1825.21</v>
@@ -19717,7 +19679,7 @@
         <v>2986.46</v>
       </c>
       <c r="CC61" s="1">
-        <v>2178.2</v>
+        <v>2178.1999999999998</v>
       </c>
       <c r="CD61" s="1">
         <v>387.55</v>
@@ -19726,7 +19688,7 @@
         <v>1279.32</v>
       </c>
       <c r="CF61" s="1">
-        <v>1037.11</v>
+        <v>1037.1099999999999</v>
       </c>
       <c r="CG61" s="1">
         <v>83.41</v>
@@ -19735,7 +19697,7 @@
         <v>419.03</v>
       </c>
       <c r="CI61" s="1">
-        <v>294.91</v>
+        <v>294.91000000000003</v>
       </c>
       <c r="CJ61" s="1">
         <v>97.89</v>
@@ -19753,7 +19715,7 @@
         <v>1647.55</v>
       </c>
       <c r="CO61" s="1">
-        <v>1246.89</v>
+        <v>1246.8900000000001</v>
       </c>
       <c r="CP61" s="1">
         <v>1625837</v>
@@ -19780,10 +19742,10 @@
         <v>33896.97</v>
       </c>
       <c r="CX61" s="1">
-        <v>27079.28</v>
+        <v>27079.279999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:102">
+    <row r="62" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -19818,7 +19780,7 @@
         <v>313.58</v>
       </c>
       <c r="L62" s="1">
-        <v>4242.36</v>
+        <v>4242.3599999999997</v>
       </c>
       <c r="M62" s="1">
         <v>2759.46</v>
@@ -19827,7 +19789,7 @@
         <v>907.95</v>
       </c>
       <c r="O62" s="1">
-        <v>4376.19</v>
+        <v>4376.1899999999996</v>
       </c>
       <c r="P62" s="1">
         <v>3212.06</v>
@@ -19848,7 +19810,7 @@
         <v>3097.12</v>
       </c>
       <c r="V62" s="1">
-        <v>2412.26</v>
+        <v>2412.2600000000002</v>
       </c>
       <c r="W62" s="1">
         <v>1088.94</v>
@@ -19884,7 +19846,7 @@
         <v>11567.42</v>
       </c>
       <c r="AH62" s="1">
-        <v>8799.309999999999</v>
+        <v>8799.31</v>
       </c>
       <c r="AI62" s="1">
         <v>1418.09</v>
@@ -19902,10 +19864,10 @@
         <v>5318.44</v>
       </c>
       <c r="AN62" s="1">
-        <v>4346.4</v>
+        <v>4346.3999999999996</v>
       </c>
       <c r="AO62" s="1">
-        <v>1060.38</v>
+        <v>1060.3800000000001</v>
       </c>
       <c r="AP62" s="1">
         <v>3554.81</v>
@@ -19938,7 +19900,7 @@
         <v>5082.07</v>
       </c>
       <c r="AZ62" s="1">
-        <v>4466.85</v>
+        <v>4466.8500000000004</v>
       </c>
       <c r="BA62" s="1">
         <v>1892.4</v>
@@ -19962,7 +19924,7 @@
         <v>3037.74</v>
       </c>
       <c r="BH62" s="1">
-        <v>2529.51</v>
+        <v>2529.5100000000002</v>
       </c>
       <c r="BI62" s="1">
         <v>436.04</v>
@@ -19989,10 +19951,10 @@
         <v>5823.39</v>
       </c>
       <c r="BQ62" s="1">
-        <v>4561.69</v>
+        <v>4561.6899999999996</v>
       </c>
       <c r="BR62" s="1">
-        <v>539.1900000000001</v>
+        <v>539.19000000000005</v>
       </c>
       <c r="BS62" s="1">
         <v>1370.03</v>
@@ -20055,10 +20017,10 @@
         <v>475</v>
       </c>
       <c r="CM62" s="1">
-        <v>691.0700000000001</v>
+        <v>691.07</v>
       </c>
       <c r="CN62" s="1">
-        <v>2070.76</v>
+        <v>2070.7600000000002</v>
       </c>
       <c r="CO62" s="1">
         <v>1421.38</v>
@@ -20085,13 +20047,13 @@
         <v>4726.95</v>
       </c>
       <c r="CW62" s="1">
-        <v>39286.41</v>
+        <v>39286.410000000003</v>
       </c>
       <c r="CX62" s="1">
         <v>31938.42</v>
       </c>
     </row>
-    <row r="63" spans="1:102">
+    <row r="63" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>164</v>
       </c>
@@ -20102,7 +20064,7 @@
         <v>2855.55</v>
       </c>
       <c r="D63" s="1">
-        <v>9179.190000000001</v>
+        <v>9179.19</v>
       </c>
       <c r="E63" s="1">
         <v>128.85</v>
@@ -20150,7 +20112,7 @@
         <v>5891.25</v>
       </c>
       <c r="T63" s="1">
-        <v>980.5700000000001</v>
+        <v>980.57</v>
       </c>
       <c r="U63" s="1">
         <v>3541.92</v>
@@ -20192,7 +20154,7 @@
         <v>11908.49</v>
       </c>
       <c r="AH63" s="1">
-        <v>9918.780000000001</v>
+        <v>9918.7800000000007</v>
       </c>
       <c r="AI63" s="1">
         <v>1495.45</v>
@@ -20213,7 +20175,7 @@
         <v>5048.49</v>
       </c>
       <c r="AO63" s="1">
-        <v>1098.66</v>
+        <v>1098.6600000000001</v>
       </c>
       <c r="AP63" s="1">
         <v>3919.45</v>
@@ -20225,7 +20187,7 @@
         <v>3226.64</v>
       </c>
       <c r="AS63" s="1">
-        <v>18901.83</v>
+        <v>18901.830000000002</v>
       </c>
       <c r="AT63" s="1">
         <v>11768.18</v>
@@ -20282,7 +20244,7 @@
         <v>748.59</v>
       </c>
       <c r="BL63" s="1">
-        <v>606.8</v>
+        <v>606.79999999999995</v>
       </c>
       <c r="BM63" s="1">
         <v>3448.77</v>
@@ -20309,10 +20271,10 @@
         <v>1885.79</v>
       </c>
       <c r="BU63" s="1">
-        <v>1067.6</v>
+        <v>1067.5999999999999</v>
       </c>
       <c r="BV63" s="1">
-        <v>2582.53</v>
+        <v>2582.5300000000002</v>
       </c>
       <c r="BW63" s="1">
         <v>2519.62</v>
@@ -20348,7 +20310,7 @@
         <v>107.4</v>
       </c>
       <c r="CH63" s="1">
-        <v>575.33</v>
+        <v>575.33000000000004</v>
       </c>
       <c r="CI63" s="1">
         <v>398.54</v>
@@ -20357,7 +20319,7 @@
         <v>127.25</v>
       </c>
       <c r="CK63" s="1">
-        <v>662.3200000000001</v>
+        <v>662.32</v>
       </c>
       <c r="CL63" s="1">
         <v>563.74</v>
@@ -20390,16 +20352,16 @@
         <v>16154.63</v>
       </c>
       <c r="CV63" s="1">
-        <v>5036.19</v>
+        <v>5036.1899999999996</v>
       </c>
       <c r="CW63" s="1">
-        <v>41848.09</v>
+        <v>41848.089999999997</v>
       </c>
       <c r="CX63" s="1">
         <v>36376.35</v>
       </c>
     </row>
-    <row r="64" spans="1:102">
+    <row r="64" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -20413,13 +20375,13 @@
         <v>10600.84</v>
       </c>
       <c r="E64" s="1">
-        <v>145.58</v>
+        <v>145.58000000000001</v>
       </c>
       <c r="F64" s="1">
-        <v>4840.23</v>
+        <v>4840.2299999999996</v>
       </c>
       <c r="G64" s="1">
-        <v>4238.65</v>
+        <v>4238.6499999999996</v>
       </c>
       <c r="H64" s="1">
         <v>2562.81</v>
@@ -20458,19 +20420,19 @@
         <v>6849.37</v>
       </c>
       <c r="T64" s="1">
-        <v>1050.15</v>
+        <v>1050.1500000000001</v>
       </c>
       <c r="U64" s="1">
-        <v>4506.31</v>
+        <v>4506.3100000000004</v>
       </c>
       <c r="V64" s="1">
         <v>3111.12</v>
       </c>
       <c r="W64" s="1">
-        <v>1302.9</v>
+        <v>1302.9000000000001</v>
       </c>
       <c r="X64" s="1">
-        <v>5025.15</v>
+        <v>5025.1499999999996</v>
       </c>
       <c r="Y64" s="1">
         <v>4040.55</v>
@@ -20509,7 +20471,7 @@
         <v>6436.62</v>
       </c>
       <c r="AK64" s="1">
-        <v>4193.69</v>
+        <v>4193.6899999999996</v>
       </c>
       <c r="AL64" s="1">
         <v>1363.67</v>
@@ -20581,7 +20543,7 @@
         <v>3383.11</v>
       </c>
       <c r="BI64" s="1">
-        <v>539.83</v>
+        <v>539.83000000000004</v>
       </c>
       <c r="BJ64" s="1">
         <v>571</v>
@@ -20614,10 +20576,10 @@
         <v>1800.06</v>
       </c>
       <c r="BT64" s="1">
-        <v>2177.07</v>
+        <v>2177.0700000000002</v>
       </c>
       <c r="BU64" s="1">
-        <v>1108.38</v>
+        <v>1108.3800000000001</v>
       </c>
       <c r="BV64" s="1">
         <v>3223.49</v>
@@ -20653,7 +20615,7 @@
         <v>1536.5</v>
       </c>
       <c r="CG64" s="1">
-        <v>134.92</v>
+        <v>134.91999999999999</v>
       </c>
       <c r="CH64" s="1">
         <v>744.63</v>
@@ -20671,7 +20633,7 @@
         <v>702.45</v>
       </c>
       <c r="CM64" s="1">
-        <v>1078.63</v>
+        <v>1078.6300000000001</v>
       </c>
       <c r="CN64" s="1">
         <v>2592.15</v>
@@ -20689,13 +20651,13 @@
         <v>2295404</v>
       </c>
       <c r="CS64" s="1">
-        <v>797.9400000000001</v>
+        <v>797.94</v>
       </c>
       <c r="CT64" s="1">
-        <v>18761.56</v>
+        <v>18761.560000000001</v>
       </c>
       <c r="CU64" s="1">
-        <v>18817.56</v>
+        <v>18817.560000000001</v>
       </c>
       <c r="CV64" s="1">
         <v>5747.47</v>
@@ -20707,12 +20669,12 @@
         <v>43565.13</v>
       </c>
     </row>
-    <row r="65" spans="1:102">
+    <row r="65" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>166</v>
       </c>
       <c r="B65" s="1">
-        <v>136.27</v>
+        <v>136.27000000000001</v>
       </c>
       <c r="C65" s="1">
         <v>3752.48</v>
@@ -20739,7 +20701,7 @@
         <v>8483.17</v>
       </c>
       <c r="K65" s="1">
-        <v>641.42</v>
+        <v>641.41999999999996</v>
       </c>
       <c r="L65" s="1">
         <v>6635.26</v>
@@ -20754,7 +20716,7 @@
         <v>8037.69</v>
       </c>
       <c r="P65" s="1">
-        <v>5015.89</v>
+        <v>5015.8900000000003</v>
       </c>
       <c r="Q65" s="1">
         <v>1915.57</v>
@@ -20796,7 +20758,7 @@
         <v>3064.78</v>
       </c>
       <c r="AD65" s="1">
-        <v>25203.28</v>
+        <v>25203.279999999999</v>
       </c>
       <c r="AE65" s="1">
         <v>20842.21</v>
@@ -20805,7 +20767,7 @@
         <v>1583.04</v>
       </c>
       <c r="AG65" s="1">
-        <v>16555.58</v>
+        <v>16555.580000000002</v>
       </c>
       <c r="AH65" s="1">
         <v>14180.23</v>
@@ -20814,7 +20776,7 @@
         <v>2015.31</v>
       </c>
       <c r="AJ65" s="1">
-        <v>8309.379999999999</v>
+        <v>8309.3799999999992</v>
       </c>
       <c r="AK65" s="1">
         <v>4975.96</v>
@@ -20823,7 +20785,7 @@
         <v>1612.24</v>
       </c>
       <c r="AM65" s="1">
-        <v>9069.200000000001</v>
+        <v>9069.2000000000007</v>
       </c>
       <c r="AN65" s="1">
         <v>6878.74</v>
@@ -20856,10 +20818,10 @@
         <v>7991.72</v>
       </c>
       <c r="AX65" s="1">
-        <v>2569.3</v>
+        <v>2569.3000000000002</v>
       </c>
       <c r="AY65" s="1">
-        <v>9815.940000000001</v>
+        <v>9815.94</v>
       </c>
       <c r="AZ65" s="1">
         <v>7247.02</v>
@@ -20943,13 +20905,13 @@
         <v>322.57</v>
       </c>
       <c r="CA65" s="1">
-        <v>1220.9</v>
+        <v>1220.9000000000001</v>
       </c>
       <c r="CB65" s="1">
         <v>6935.59</v>
       </c>
       <c r="CC65" s="1">
-        <v>4355.81</v>
+        <v>4355.8100000000004</v>
       </c>
       <c r="CD65" s="1">
         <v>678.75</v>
@@ -20961,19 +20923,19 @@
         <v>1963.79</v>
       </c>
       <c r="CG65" s="1">
-        <v>155.08</v>
+        <v>155.08000000000001</v>
       </c>
       <c r="CH65" s="1">
-        <v>975.1799999999999</v>
+        <v>975.18</v>
       </c>
       <c r="CI65" s="1">
-        <v>540.1799999999999</v>
+        <v>540.17999999999995</v>
       </c>
       <c r="CJ65" s="1">
         <v>184.14</v>
       </c>
       <c r="CK65" s="1">
-        <v>1056.15</v>
+        <v>1056.1500000000001</v>
       </c>
       <c r="CL65" s="1">
         <v>861.92</v>
@@ -21015,12 +20977,12 @@
         <v>51652.1</v>
       </c>
     </row>
-    <row r="66" spans="1:102">
+    <row r="66" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>167</v>
       </c>
       <c r="B66" s="1">
-        <v>150.2</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="C66" s="1">
         <v>4059.27</v>
@@ -21044,10 +21006,10 @@
         <v>14003.57</v>
       </c>
       <c r="J66" s="1">
-        <v>9384.780000000001</v>
+        <v>9384.7800000000007</v>
       </c>
       <c r="K66" s="1">
-        <v>698.3200000000001</v>
+        <v>698.32</v>
       </c>
       <c r="L66" s="1">
         <v>6731.56</v>
@@ -21065,13 +21027,13 @@
         <v>5630.5</v>
       </c>
       <c r="Q66" s="1">
-        <v>2155.82</v>
+        <v>2155.8200000000002</v>
       </c>
       <c r="R66" s="1">
         <v>13230.49</v>
       </c>
       <c r="S66" s="1">
-        <v>9460.120000000001</v>
+        <v>9460.1200000000008</v>
       </c>
       <c r="T66" s="1">
         <v>1412.11</v>
@@ -21080,7 +21042,7 @@
         <v>6376.77</v>
       </c>
       <c r="V66" s="1">
-        <v>4150.36</v>
+        <v>4150.3599999999997</v>
       </c>
       <c r="W66" s="1">
         <v>2113.66</v>
@@ -21143,7 +21105,7 @@
         <v>6942.59</v>
       </c>
       <c r="AQ66" s="1">
-        <v>4486.06</v>
+        <v>4486.0600000000004</v>
       </c>
       <c r="AR66" s="1">
         <v>4281.7</v>
@@ -21152,7 +21114,7 @@
         <v>25735.73</v>
       </c>
       <c r="AT66" s="1">
-        <v>19995.81</v>
+        <v>19995.810000000001</v>
       </c>
       <c r="AU66" s="1">
         <v>3769.54</v>
@@ -21221,7 +21183,7 @@
         <v>12333.28</v>
       </c>
       <c r="BQ66" s="1">
-        <v>8242.309999999999</v>
+        <v>8242.31</v>
       </c>
       <c r="BR66" s="1">
         <v>891.91</v>
@@ -21257,7 +21219,7 @@
         <v>8073.87</v>
       </c>
       <c r="CC66" s="1">
-        <v>5009.65</v>
+        <v>5009.6499999999996</v>
       </c>
       <c r="CD66" s="1">
         <v>780.5</v>
@@ -21272,7 +21234,7 @@
         <v>176.91</v>
       </c>
       <c r="CH66" s="1">
-        <v>1092.34</v>
+        <v>1092.3399999999999</v>
       </c>
       <c r="CI66" s="1">
         <v>624.29</v>
@@ -21281,7 +21243,7 @@
         <v>199.4</v>
       </c>
       <c r="CK66" s="1">
-        <v>1159.37</v>
+        <v>1159.3699999999999</v>
       </c>
       <c r="CL66" s="1">
         <v>982.52</v>
@@ -21305,7 +21267,7 @@
         <v>3336783</v>
       </c>
       <c r="CS66" s="1">
-        <v>958.5700000000001</v>
+        <v>958.57</v>
       </c>
       <c r="CT66" s="1">
         <v>22795.18</v>
@@ -21323,15 +21285,15 @@
         <v>57710.21</v>
       </c>
     </row>
-    <row r="67" spans="1:102">
+    <row r="67" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>168</v>
       </c>
       <c r="B67" s="1">
-        <v>159.64</v>
+        <v>159.63999999999999</v>
       </c>
       <c r="C67" s="1">
-        <v>4292.56</v>
+        <v>4292.5600000000004</v>
       </c>
       <c r="D67" s="1">
         <v>15348.61</v>
@@ -21352,7 +21314,7 @@
         <v>14781.85</v>
       </c>
       <c r="J67" s="1">
-        <v>10279.12</v>
+        <v>10279.120000000001</v>
       </c>
       <c r="K67" s="1">
         <v>741.01</v>
@@ -21412,7 +21374,7 @@
         <v>3469.86</v>
       </c>
       <c r="AD67" s="1">
-        <v>29086.08</v>
+        <v>29086.080000000002</v>
       </c>
       <c r="AE67" s="1">
         <v>27197.43</v>
@@ -21430,7 +21392,7 @@
         <v>2267.15</v>
       </c>
       <c r="AJ67" s="1">
-        <v>10390.04</v>
+        <v>10390.040000000001</v>
       </c>
       <c r="AK67" s="1">
         <v>6572.14</v>
@@ -21466,7 +21428,7 @@
         <v>3972.7</v>
       </c>
       <c r="AV67" s="1">
-        <v>16742.9</v>
+        <v>16742.900000000001</v>
       </c>
       <c r="AW67" s="1">
         <v>11475.7</v>
@@ -21493,7 +21455,7 @@
         <v>28994.22</v>
       </c>
       <c r="BE67" s="1">
-        <v>30503.44</v>
+        <v>30503.439999999999</v>
       </c>
       <c r="BF67" s="1">
         <v>2290.64</v>
@@ -21529,7 +21491,7 @@
         <v>13472.05</v>
       </c>
       <c r="BQ67" s="1">
-        <v>9551.360000000001</v>
+        <v>9551.36</v>
       </c>
       <c r="BR67" s="1">
         <v>998.47</v>
@@ -21550,7 +21512,7 @@
         <v>5032.3</v>
       </c>
       <c r="BX67" s="1">
-        <v>84.68000000000001</v>
+        <v>84.68</v>
       </c>
       <c r="BY67" s="1">
         <v>292.92</v>
@@ -21568,7 +21530,7 @@
         <v>5832.14</v>
       </c>
       <c r="CD67" s="1">
-        <v>844.6900000000001</v>
+        <v>844.69</v>
       </c>
       <c r="CE67" s="1">
         <v>2745.35</v>
@@ -21583,13 +21545,13 @@
         <v>1151.28</v>
       </c>
       <c r="CI67" s="1">
-        <v>766.0599999999999</v>
+        <v>766.06</v>
       </c>
       <c r="CJ67" s="1">
         <v>210.81</v>
       </c>
       <c r="CK67" s="1">
-        <v>1259.59</v>
+        <v>1259.5899999999999</v>
       </c>
       <c r="CL67" s="1">
         <v>1107.17</v>
@@ -21631,7 +21593,7 @@
         <v>65860.98</v>
       </c>
     </row>
-    <row r="68" spans="1:102">
+    <row r="68" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -21675,7 +21637,7 @@
         <v>1627.85</v>
       </c>
       <c r="O68" s="1">
-        <v>9119.790000000001</v>
+        <v>9119.7900000000009</v>
       </c>
       <c r="P68" s="1">
         <v>7022.55</v>
@@ -21729,7 +21691,7 @@
         <v>1777.18</v>
       </c>
       <c r="AG68" s="1">
-        <v>19175.06</v>
+        <v>19175.060000000001</v>
       </c>
       <c r="AH68" s="1">
         <v>19220.79</v>
@@ -21762,7 +21724,7 @@
         <v>5782.98</v>
       </c>
       <c r="AR68" s="1">
-        <v>4798.36</v>
+        <v>4798.3599999999997</v>
       </c>
       <c r="AS68" s="1">
         <v>28788.11</v>
@@ -21774,7 +21736,7 @@
         <v>4160.01</v>
       </c>
       <c r="AV68" s="1">
-        <v>17816.56</v>
+        <v>17816.560000000001</v>
       </c>
       <c r="AW68" s="1">
         <v>12961.67</v>
@@ -21801,7 +21763,7 @@
         <v>31419.75</v>
       </c>
       <c r="BE68" s="1">
-        <v>33223.28</v>
+        <v>33223.279999999999</v>
       </c>
       <c r="BF68" s="1">
         <v>2413.44</v>
@@ -21900,7 +21862,7 @@
         <v>1341.24</v>
       </c>
       <c r="CL68" s="1">
-        <v>1193.87</v>
+        <v>1193.8699999999999</v>
       </c>
       <c r="CM68" s="1">
         <v>1538.6</v>
@@ -21933,13 +21895,13 @@
         <v>7935.49</v>
       </c>
       <c r="CW68" s="1">
-        <v>70429.74000000001</v>
+        <v>70429.740000000005</v>
       </c>
       <c r="CX68" s="1">
         <v>72875.39</v>
       </c>
     </row>
-    <row r="69" spans="1:102">
+    <row r="69" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -21947,10 +21909,10 @@
         <v>140.21</v>
       </c>
       <c r="C69" s="1">
-        <v>4542.64</v>
+        <v>4542.6400000000003</v>
       </c>
       <c r="D69" s="1">
-        <v>18331.74</v>
+        <v>18331.740000000002</v>
       </c>
       <c r="E69" s="1">
         <v>208.82</v>
@@ -21974,7 +21936,7 @@
         <v>783.16</v>
       </c>
       <c r="L69" s="1">
-        <v>5194.27</v>
+        <v>5194.2700000000004</v>
       </c>
       <c r="M69" s="1">
         <v>6789.06</v>
@@ -21989,7 +21951,7 @@
         <v>7213.51</v>
       </c>
       <c r="Q69" s="1">
-        <v>2384.03</v>
+        <v>2384.0300000000002</v>
       </c>
       <c r="R69" s="1">
         <v>13041.97</v>
@@ -22031,13 +21993,13 @@
         <v>32044.45</v>
       </c>
       <c r="AE69" s="1">
-        <v>34085.88</v>
+        <v>34085.879999999997</v>
       </c>
       <c r="AF69" s="1">
         <v>1832.91</v>
       </c>
       <c r="AG69" s="1">
-        <v>19711.67</v>
+        <v>19711.669999999998</v>
       </c>
       <c r="AH69" s="1">
         <v>21341.91</v>
@@ -22049,7 +22011,7 @@
         <v>10946.83</v>
       </c>
       <c r="AK69" s="1">
-        <v>8602.110000000001</v>
+        <v>8602.11</v>
       </c>
       <c r="AL69" s="1">
         <v>2118.1</v>
@@ -22079,7 +22041,7 @@
         <v>28537.35</v>
       </c>
       <c r="AU69" s="1">
-        <v>4209.56</v>
+        <v>4209.5600000000004</v>
       </c>
       <c r="AV69" s="1">
         <v>17917.37</v>
@@ -22112,7 +22074,7 @@
         <v>36853.47</v>
       </c>
       <c r="BF69" s="1">
-        <v>2565.45</v>
+        <v>2565.4499999999998</v>
       </c>
       <c r="BG69" s="1">
         <v>7717.52</v>
@@ -22124,13 +22086,13 @@
         <v>854.72</v>
       </c>
       <c r="BJ69" s="1">
-        <v>875.8200000000001</v>
+        <v>875.82</v>
       </c>
       <c r="BK69" s="1">
         <v>1972.22</v>
       </c>
       <c r="BL69" s="1">
-        <v>1150.15</v>
+        <v>1150.1500000000001</v>
       </c>
       <c r="BM69" s="1">
         <v>7069.37</v>
@@ -22157,7 +22119,7 @@
         <v>4714.12</v>
       </c>
       <c r="BU69" s="1">
-        <v>2055.78</v>
+        <v>2055.7800000000002</v>
       </c>
       <c r="BV69" s="1">
         <v>5416.12</v>
@@ -22166,7 +22128,7 @@
         <v>6147.27</v>
       </c>
       <c r="BX69" s="1">
-        <v>98.04000000000001</v>
+        <v>98.04</v>
       </c>
       <c r="BY69" s="1">
         <v>376.19</v>
@@ -22178,7 +22140,7 @@
         <v>1597.63</v>
       </c>
       <c r="CB69" s="1">
-        <v>9082.129999999999</v>
+        <v>9082.1299999999992</v>
       </c>
       <c r="CC69" s="1">
         <v>7342.1</v>
@@ -22208,7 +22170,7 @@
         <v>1379.6</v>
       </c>
       <c r="CL69" s="1">
-        <v>1294.41</v>
+        <v>1294.4100000000001</v>
       </c>
       <c r="CM69" s="1">
         <v>1559.08</v>
@@ -22229,7 +22191,7 @@
         <v>6229951</v>
       </c>
       <c r="CS69" s="1">
-        <v>1073.87</v>
+        <v>1073.8699999999999</v>
       </c>
       <c r="CT69" s="1">
         <v>28135.99</v>
@@ -22244,10 +22206,10 @@
         <v>71948.59</v>
       </c>
       <c r="CX69" s="1">
-        <v>81491.03999999999</v>
+        <v>81491.039999999994</v>
       </c>
     </row>
-    <row r="70" spans="1:102">
+    <row r="70" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>171</v>
       </c>
@@ -22255,10 +22217,10 @@
         <v>129.79</v>
       </c>
       <c r="C70" s="1">
-        <v>4944.44</v>
+        <v>4944.4399999999996</v>
       </c>
       <c r="D70" s="1">
-        <v>20594.9</v>
+        <v>20594.900000000001</v>
       </c>
       <c r="E70" s="1">
         <v>220.22</v>
@@ -22291,7 +22253,7 @@
         <v>1637.39</v>
       </c>
       <c r="O70" s="1">
-        <v>8553.629999999999</v>
+        <v>8553.6299999999992</v>
       </c>
       <c r="P70" s="1">
         <v>7937.08</v>
@@ -22300,7 +22262,7 @@
         <v>2173.06</v>
       </c>
       <c r="R70" s="1">
-        <v>8606.540000000001</v>
+        <v>8606.5400000000009</v>
       </c>
       <c r="S70" s="1">
         <v>11467.3</v>
@@ -22318,19 +22280,19 @@
         <v>2670.46</v>
       </c>
       <c r="X70" s="1">
-        <v>4400.69</v>
+        <v>4400.6899999999996</v>
       </c>
       <c r="Y70" s="1">
-        <v>8314.940000000001</v>
+        <v>8314.94</v>
       </c>
       <c r="Z70" s="1">
         <v>109.47</v>
       </c>
       <c r="AA70" s="1">
-        <v>8406.280000000001</v>
+        <v>8406.2800000000007</v>
       </c>
       <c r="AB70" s="1">
-        <v>19662.9</v>
+        <v>19662.900000000001</v>
       </c>
       <c r="AC70" s="1">
         <v>4077.18</v>
@@ -22339,7 +22301,7 @@
         <v>34619.5</v>
       </c>
       <c r="AE70" s="1">
-        <v>38691.6</v>
+        <v>38691.599999999999</v>
       </c>
       <c r="AF70" s="1">
         <v>1965.18</v>
@@ -22351,7 +22313,7 @@
         <v>24091.57</v>
       </c>
       <c r="AI70" s="1">
-        <v>2567.72</v>
+        <v>2567.7199999999998</v>
       </c>
       <c r="AJ70" s="1">
         <v>11821.58</v>
@@ -22360,7 +22322,7 @@
         <v>10018.32</v>
       </c>
       <c r="AL70" s="1">
-        <v>2363.22</v>
+        <v>2363.2199999999998</v>
       </c>
       <c r="AM70" s="1">
         <v>14093.47</v>
@@ -22372,7 +22334,7 @@
         <v>1904.53</v>
       </c>
       <c r="AP70" s="1">
-        <v>8829.540000000001</v>
+        <v>8829.5400000000009</v>
       </c>
       <c r="AQ70" s="1">
         <v>7764.93</v>
@@ -22393,7 +22355,7 @@
         <v>19275.82</v>
       </c>
       <c r="AW70" s="1">
-        <v>16909.76</v>
+        <v>16909.759999999998</v>
       </c>
       <c r="AX70" s="1">
         <v>3659.33</v>
@@ -22414,10 +22376,10 @@
         <v>3694.37</v>
       </c>
       <c r="BD70" s="1">
-        <v>35109.66</v>
+        <v>35109.660000000003</v>
       </c>
       <c r="BE70" s="1">
-        <v>42050.88</v>
+        <v>42050.879999999997</v>
       </c>
       <c r="BF70" s="1">
         <v>2796.8</v>
@@ -22486,7 +22448,7 @@
         <v>1693.85</v>
       </c>
       <c r="CB70" s="1">
-        <v>9490.719999999999</v>
+        <v>9490.7199999999993</v>
       </c>
       <c r="CC70" s="1">
         <v>8215.02</v>
@@ -22540,7 +22502,7 @@
         <v>1153.92</v>
       </c>
       <c r="CT70" s="1">
-        <v>29692.8</v>
+        <v>29692.799999999999</v>
       </c>
       <c r="CU70" s="1">
         <v>38223.54</v>
@@ -22555,7 +22517,7 @@
         <v>92405.98</v>
       </c>
     </row>
-    <row r="71" spans="1:102">
+    <row r="71" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>172</v>
       </c>
@@ -22566,7 +22528,7 @@
         <v>5326.76</v>
       </c>
       <c r="D71" s="1">
-        <v>22567.76</v>
+        <v>22567.759999999998</v>
       </c>
       <c r="E71" s="1">
         <v>168.96</v>
@@ -22608,13 +22570,13 @@
         <v>1902.28</v>
       </c>
       <c r="R71" s="1">
-        <v>9199.799999999999</v>
+        <v>9199.7999999999993</v>
       </c>
       <c r="S71" s="1">
         <v>12307.16</v>
       </c>
       <c r="T71" s="1">
-        <v>1095.36</v>
+        <v>1095.3599999999999</v>
       </c>
       <c r="U71" s="1">
         <v>6998.51</v>
@@ -22644,7 +22606,7 @@
         <v>4045.16</v>
       </c>
       <c r="AD71" s="1">
-        <v>38654.87</v>
+        <v>38654.870000000003</v>
       </c>
       <c r="AE71" s="1">
         <v>43169.73</v>
@@ -22653,7 +22615,7 @@
         <v>1933.92</v>
       </c>
       <c r="AG71" s="1">
-        <v>22232.08</v>
+        <v>22232.080000000002</v>
       </c>
       <c r="AH71" s="1">
         <v>27602.26</v>
@@ -22689,7 +22651,7 @@
         <v>4832.71</v>
       </c>
       <c r="AS71" s="1">
-        <v>32942.84</v>
+        <v>32942.839999999997</v>
       </c>
       <c r="AT71" s="1">
         <v>34858.6</v>
@@ -22734,7 +22696,7 @@
         <v>7450.85</v>
       </c>
       <c r="BH71" s="1">
-        <v>8194.110000000001</v>
+        <v>8194.11</v>
       </c>
       <c r="BI71" s="1">
         <v>962.84</v>
@@ -22746,22 +22708,22 @@
         <v>2503.35</v>
       </c>
       <c r="BL71" s="1">
-        <v>1276.09</v>
+        <v>1276.0899999999999</v>
       </c>
       <c r="BM71" s="1">
-        <v>8584.610000000001</v>
+        <v>8584.61</v>
       </c>
       <c r="BN71" s="1">
-        <v>9564.030000000001</v>
+        <v>9564.0300000000007</v>
       </c>
       <c r="BO71" s="1">
-        <v>4262.35</v>
+        <v>4262.3500000000004</v>
       </c>
       <c r="BP71" s="1">
         <v>14328.13</v>
       </c>
       <c r="BQ71" s="1">
-        <v>18389.74</v>
+        <v>18389.740000000002</v>
       </c>
       <c r="BR71" s="1">
         <v>2032.27</v>
@@ -22812,7 +22774,7 @@
         <v>238.41</v>
       </c>
       <c r="CH71" s="1">
-        <v>1162.41</v>
+        <v>1162.4100000000001</v>
       </c>
       <c r="CI71" s="1">
         <v>1224.01</v>
@@ -22830,10 +22792,10 @@
         <v>1551.84</v>
       </c>
       <c r="CN71" s="1">
-        <v>4330.89</v>
+        <v>4330.8900000000003</v>
       </c>
       <c r="CO71" s="1">
-        <v>4999.23</v>
+        <v>4999.2299999999996</v>
       </c>
       <c r="CP71" s="1">
         <v>5063290</v>
@@ -22854,7 +22816,7 @@
         <v>42985.8</v>
       </c>
       <c r="CV71" s="1">
-        <v>8703.620000000001</v>
+        <v>8703.6200000000008</v>
       </c>
       <c r="CW71" s="1">
         <v>83055.88</v>
@@ -22863,7 +22825,7 @@
         <v>103560.7</v>
       </c>
     </row>
-    <row r="72" spans="1:102">
+    <row r="72" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -22943,7 +22905,7 @@
         <v>104.78</v>
       </c>
       <c r="AA72" s="1">
-        <v>10360.78</v>
+        <v>10360.780000000001</v>
       </c>
       <c r="AB72" s="1">
         <v>25546.26</v>
@@ -22976,7 +22938,7 @@
         <v>17278.5</v>
       </c>
       <c r="AL72" s="1">
-        <v>2379.82</v>
+        <v>2379.8200000000002</v>
       </c>
       <c r="AM72" s="1">
         <v>17232.36</v>
@@ -22988,13 +22950,13 @@
         <v>1877.3</v>
       </c>
       <c r="AP72" s="1">
-        <v>10081.2</v>
+        <v>10081.200000000001</v>
       </c>
       <c r="AQ72" s="1">
         <v>10758</v>
       </c>
       <c r="AR72" s="1">
-        <v>4950.52</v>
+        <v>4950.5200000000004</v>
       </c>
       <c r="AS72" s="1">
         <v>27523.67</v>
@@ -23006,7 +22968,7 @@
         <v>4311.12</v>
       </c>
       <c r="AV72" s="1">
-        <v>22038.56</v>
+        <v>22038.560000000001</v>
       </c>
       <c r="AW72" s="1">
         <v>23586.21</v>
@@ -23048,7 +23010,7 @@
         <v>985.96</v>
       </c>
       <c r="BJ72" s="1">
-        <v>1053.14</v>
+        <v>1053.1400000000001</v>
       </c>
       <c r="BK72" s="1">
         <v>2871.59</v>
@@ -23057,7 +23019,7 @@
         <v>1378.27</v>
       </c>
       <c r="BM72" s="1">
-        <v>8328.790000000001</v>
+        <v>8328.7900000000009</v>
       </c>
       <c r="BN72" s="1">
         <v>10656.13</v>
@@ -23117,7 +23079,7 @@
         <v>4416.38</v>
       </c>
       <c r="CG72" s="1">
-        <v>268.1</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="CH72" s="1">
         <v>1093.72</v>
@@ -23165,13 +23127,13 @@
         <v>8851.07</v>
       </c>
       <c r="CW72" s="1">
-        <v>88329.03999999999</v>
+        <v>88329.04</v>
       </c>
       <c r="CX72" s="1">
         <v>114299.16</v>
       </c>
     </row>
-    <row r="73" spans="1:102">
+    <row r="73" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>174</v>
       </c>
@@ -23191,7 +23153,7 @@
         <v>4969.18</v>
       </c>
       <c r="G73" s="1">
-        <v>8949.870000000001</v>
+        <v>8949.8700000000008</v>
       </c>
       <c r="H73" s="1">
         <v>3518.4</v>
@@ -23209,7 +23171,7 @@
         <v>7453.09</v>
       </c>
       <c r="M73" s="1">
-        <v>8748.870000000001</v>
+        <v>8748.8700000000008</v>
       </c>
       <c r="N73" s="1">
         <v>1863.2</v>
@@ -23221,10 +23183,10 @@
         <v>8530.5</v>
       </c>
       <c r="Q73" s="1">
-        <v>2177.8</v>
+        <v>2177.8000000000002</v>
       </c>
       <c r="R73" s="1">
-        <v>9531.200000000001</v>
+        <v>9531.2000000000007</v>
       </c>
       <c r="S73" s="1">
         <v>13200.4</v>
@@ -23281,13 +23243,13 @@
         <v>15337.9</v>
       </c>
       <c r="AK73" s="1">
-        <v>18860.4</v>
+        <v>18860.400000000001</v>
       </c>
       <c r="AL73" s="1">
         <v>2596.23</v>
       </c>
       <c r="AM73" s="1">
-        <v>20581.74</v>
+        <v>20581.740000000002</v>
       </c>
       <c r="AN73" s="1">
         <v>19217.03</v>
@@ -23302,16 +23264,16 @@
         <v>11760.1</v>
       </c>
       <c r="AR73" s="1">
-        <v>5116.4</v>
+        <v>5116.3999999999996</v>
       </c>
       <c r="AS73" s="1">
         <v>28310.9</v>
       </c>
       <c r="AT73" s="1">
-        <v>37640.2</v>
+        <v>37640.199999999997</v>
       </c>
       <c r="AU73" s="1">
-        <v>4635.4</v>
+        <v>4635.3999999999996</v>
       </c>
       <c r="AV73" s="1">
         <v>23605.79</v>
@@ -23353,7 +23315,7 @@
         <v>10771.97</v>
       </c>
       <c r="BI73" s="1">
-        <v>1080.36</v>
+        <v>1080.3599999999999</v>
       </c>
       <c r="BJ73" s="1">
         <v>1099.04</v>
@@ -23374,7 +23336,7 @@
         <v>4807.24</v>
       </c>
       <c r="BP73" s="1">
-        <v>17365.33</v>
+        <v>17365.330000000002</v>
       </c>
       <c r="BQ73" s="1">
         <v>24443.25</v>
@@ -23422,10 +23384,10 @@
         <v>2862.4</v>
       </c>
       <c r="CF73" s="1">
-        <v>4805.4</v>
+        <v>4805.3999999999996</v>
       </c>
       <c r="CG73" s="1">
-        <v>301.9</v>
+        <v>301.89999999999998</v>
       </c>
       <c r="CH73" s="1">
         <v>1159.75</v>
@@ -23470,21 +23432,18 @@
         <v>0</v>
       </c>
       <c r="CV73" s="1">
-        <v>9413.200000000001</v>
+        <v>9413.2000000000007</v>
       </c>
       <c r="CW73" s="1">
         <v>96474.2</v>
       </c>
       <c r="CX73" s="1">
-        <v>131365.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:102">
-      <c r="A75" s="2" t="s">
-        <v>175</v>
+        <v>131365.20000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>